--- a/me/2.typescript/6.Module-Namepace.xlsx
+++ b/me/2.typescript/6.Module-Namepace.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E2D7C4-3347-4F34-90E1-C882FB7E0E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9983B12F-EEBD-4BFD-B481-FBEFF5B82BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Namepace" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>Export</t>
   </si>
@@ -154,6 +155,356 @@
   </si>
   <si>
     <t>dịch thì nó ko tạo ra mã gì khác biệt cả tuy nhiên khi đưa vào 1 số trình soạn thảo thì việc đưa vào reference nó sẽ hỗ trợ mình việc nhắc lệnh</t>
+  </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>typescript</t>
+  </si>
+  <si>
+    <t>1.es6</t>
+  </si>
+  <si>
+    <t>2.typescript</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>fonts</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>mjs</t>
+  </si>
+  <si>
+    <t>03_variable</t>
+  </si>
+  <si>
+    <t>04_function</t>
+  </si>
+  <si>
+    <t>05_oop</t>
+  </si>
+  <si>
+    <t>06_generic</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>02_hello</t>
+  </si>
+  <si>
+    <t>06-void.ts</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>tsconfig.json</t>
+  </si>
+  <si>
+    <t>07_module</t>
+  </si>
+  <si>
+    <t>LettersOnlyValidator.ts</t>
+  </si>
+  <si>
+    <t>Test.ts</t>
+  </si>
+  <si>
+    <t>Validation.ts</t>
+  </si>
+  <si>
+    <t>ZipCodeValidator.ts</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\07_module\Validation.ts</t>
+  </si>
+  <si>
+    <t>namespace Validation {</t>
+  </si>
+  <si>
+    <t>    export interface StringValidator {</t>
+  </si>
+  <si>
+    <t>        isAcceptable(s: string): boolean;</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\07_module\LettersOnlyValidator.ts</t>
+  </si>
+  <si>
+    <t>/// &lt;reference path="Validation.ts" /&gt;</t>
+  </si>
+  <si>
+    <t>    const lettersRegexp = /^[A-Za-z]+$/;</t>
+  </si>
+  <si>
+    <t>        isAcceptable(s: string) {</t>
+  </si>
+  <si>
+    <t>        return lettersRegexp.test(s);</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\07_module\ZipCodeValidator.ts</t>
+  </si>
+  <si>
+    <t>    const numberRegexp = /^[0-9]+$/;</t>
+  </si>
+  <si>
+    <t>    export class ZipCodeValidator implements StringValidator {</t>
+  </si>
+  <si>
+    <t>        return s.length === 5 &amp;&amp; numberRegexp.test(s);</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\07_module\Test.ts</t>
+  </si>
+  <si>
+    <t>/// &lt;reference path="LettersOnlyValidator.ts" /&gt;</t>
+  </si>
+  <si>
+    <t>/// &lt;reference path="ZipCodeValidator.ts" /&gt;</t>
+  </si>
+  <si>
+    <t>// Some samples to try</t>
+  </si>
+  <si>
+    <t>let strings = ["Hello", "98052", "101"];</t>
+  </si>
+  <si>
+    <t>// Validators to use</t>
+  </si>
+  <si>
+    <t>let validators: { [s: string]: Validation.StringValidator } = {};</t>
+  </si>
+  <si>
+    <t>validators["ZIP code"] = new Validation.ZipCodeValidator();</t>
+  </si>
+  <si>
+    <t>validators["Letters only"] = new Validation.LettersOnlyValidator();</t>
+  </si>
+  <si>
+    <t>// Show whether each string passed each validator</t>
+  </si>
+  <si>
+    <t>for (let s of strings) {</t>
+  </si>
+  <si>
+    <t>    for (let name in validators) {</t>
+  </si>
+  <si>
+    <t>        console.log(</t>
+  </si>
+  <si>
+    <t>        `"${s}" - ${</t>
+  </si>
+  <si>
+    <t>            validators[name].isAcceptable(s) ? "matches" : "does not match"</t>
+  </si>
+  <si>
+    <t>        } ${name}`</t>
+  </si>
+  <si>
+    <t>        );</t>
+  </si>
+  <si>
+    <t>Compile</t>
+  </si>
+  <si>
+    <t>tsc</t>
+  </si>
+  <si>
+    <t>LettersOnlyValidator.js</t>
+  </si>
+  <si>
+    <t>Test.js</t>
+  </si>
+  <si>
+    <t>Validation.js</t>
+  </si>
+  <si>
+    <t>ZipCodeValidator.js</t>
+  </si>
+  <si>
+    <t>is compipled</t>
+  </si>
+  <si>
+    <t>edit code</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\index.html</t>
+  </si>
+  <si>
+    <t>        …</t>
+  </si>
+  <si>
+    <t>        &lt;script src="js/jquery.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="js/bootstrap.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/07_module/Validation.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;script src="./mjs/07_module/LettersOnlyValidator.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;script src="./mjs/07_module/ZipCodeValidator.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;script src="./mjs/07_module/Test.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\07_module\Validation.js</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\07_module\LettersOnlyValidator.js</t>
+  </si>
+  <si>
+    <t>var Validation;</t>
+  </si>
+  <si>
+    <t>(function (Validation) {</t>
+  </si>
+  <si>
+    <t>    class LettersOnlyValidator {</t>
+  </si>
+  <si>
+    <t>        isAcceptable(s) {</t>
+  </si>
+  <si>
+    <t>            return lettersRegexp.test(s);</t>
+  </si>
+  <si>
+    <t>    Validation.LettersOnlyValidator = LettersOnlyValidator;</t>
+  </si>
+  <si>
+    <t>})(Validation || (Validation = {}));</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\07_module\ZipCodeValidator.js</t>
+  </si>
+  <si>
+    <t>    class ZipCodeValidator {</t>
+  </si>
+  <si>
+    <t>            return s.length === 5 &amp;&amp; numberRegexp.test(s);</t>
+  </si>
+  <si>
+    <t>    Validation.ZipCodeValidator = ZipCodeValidator;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\07_module\Test.js</t>
+  </si>
+  <si>
+    <t>let validators = {};</t>
+  </si>
+  <si>
+    <t>        console.log(`"${s}" - ${validators[name].isAcceptable(s) ? "matches" : "does not match"} ${name}`);</t>
+  </si>
+  <si>
+    <t>Internal modules là khái niệm về namespaces</t>
+  </si>
+  <si>
+    <t>Mã nguồn cùng đặt trên cùng 1 tập tin thì sau này sẽ khó bảo trì hay nâng cấp, do đó</t>
+  </si>
+  <si>
+    <t>mã nguồn được tổ chức thành từng namespace</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class LettersOnlyValidator implements StringValidator {</t>
+    </r>
+  </si>
+  <si>
+    <t>Để truy cập được bên ngoài namespace thì ở đây phải có từ khóa là export. Để truy cập thì phải truy cập namespace Validation trước</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">namespace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>Cắt ra thành các tập tin nhỏ có cùng namespace với nhau</t>
+  </si>
+  <si>
+    <t>Nếu bỏ đi reference thì cũng ko có lỗi khi biên dịch sang javascript. Nó chỉ có mục đích là cho biết tham chiếu đến tập tin nào</t>
+  </si>
+  <si>
+    <t>Phải kéo vào lần lượt các tập tin có sử dụng đến</t>
+  </si>
+  <si>
+    <t>Trong Validation.ts export ra interface nên chỗ này ko có code khi biên dịch ra file javascript</t>
+  </si>
+  <si>
+    <t>Sau này sẽ sử dụng các module loader để kéo vào</t>
   </si>
 </sst>
 </file>
@@ -190,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -358,11 +709,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -386,6 +774,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2151,6 +2559,516 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504005</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AD0CBF-EC59-3458-9E90-46396DA2E83F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="19297650"/>
+          <a:ext cx="6561905" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2143390-F9FF-2F49-FF3E-F18A73544A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="20240625"/>
+          <a:ext cx="1581150" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AEF73E-4264-007C-2264-2121FDB6A718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2333625" y="23822025"/>
+          <a:ext cx="161925" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437130</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087213D3-2003-7ECF-520D-2C2BBD092A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="704850"/>
+          <a:ext cx="8161905" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>351783</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323CB06E-9462-4E1F-BFBD-69B946038711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="15801975"/>
+          <a:ext cx="5133333" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6D4D01-6D37-C9FB-EE3D-163BB9671669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4886325" y="17116261"/>
+          <a:ext cx="1304925" cy="543089"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8E1D68-238B-190D-5733-1B88D313101C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="10601325"/>
+          <a:ext cx="10315575" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF67F96-EB6F-2CA3-44AB-866B2B95FA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1143000" y="11029950"/>
+          <a:ext cx="8353425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A76D32-3C19-A054-8BE7-B82CDF195485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="11049000"/>
+          <a:ext cx="9696450" cy="5010150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A793468-21F1-31C9-C835-B6E1DEA3D59C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4886325" y="27784425"/>
+          <a:ext cx="619125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2416,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A318" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
@@ -10172,4 +11090,2104 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A99B86D-72D0-4071-9EF8-FDBEBE21DE16}">
+  <dimension ref="A3:S201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="J148" sqref="J148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="29"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="29"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="29"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="29"/>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="29"/>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="29"/>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="24"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="29"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="29"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="29"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="29"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="29"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="29"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="29"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="29"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="29"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="29"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="34"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
+      <c r="I121" t="s">
+        <v>61</v>
+      </c>
+      <c r="J121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G122" s="37"/>
+      <c r="H122" s="29"/>
+      <c r="I122" t="s">
+        <v>61</v>
+      </c>
+      <c r="J122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G123" s="37"/>
+      <c r="H123" s="29"/>
+      <c r="I123" t="s">
+        <v>61</v>
+      </c>
+      <c r="J123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G124" s="37"/>
+      <c r="H124" s="29"/>
+      <c r="I124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G125" s="31"/>
+      <c r="H125" s="32"/>
+      <c r="I125" t="s">
+        <v>61</v>
+      </c>
+      <c r="J125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="29"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="24"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="29"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="29"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" s="24"/>
+      <c r="H129" s="29"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="29"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="24"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="29"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="24"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="29"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="24"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="29"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G134" s="24"/>
+      <c r="H134" s="29"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="24"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G135" s="24"/>
+      <c r="H135" s="29"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="24"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" s="24"/>
+      <c r="H136" s="29"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="24"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G137" s="24"/>
+      <c r="H137" s="29"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="24"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="29"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="24"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="32"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="4"/>
+      <c r="J146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="7"/>
+      <c r="J147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="10"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="10"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="40"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="42"/>
+      <c r="I155" t="s">
+        <v>61</v>
+      </c>
+      <c r="J155" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="10"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="7"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="7"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="7"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="10"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="4"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="7"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="7"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="7"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="7"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="7"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="7"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="7"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="7"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="7"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="7"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="7"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="7"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/6.Module-Namepace.xlsx
+++ b/me/2.typescript/6.Module-Namepace.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9983B12F-EEBD-4BFD-B481-FBEFF5B82BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096CDF75-1FB6-4343-A699-1360A7601D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
     <sheet name="Namepace" sheetId="2" r:id="rId2"/>
+    <sheet name="Module(systemjs0.19.31-0.19.43)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="202">
   <si>
     <t>Export</t>
   </si>
@@ -505,6 +506,189 @@
   </si>
   <si>
     <t>Sau này sẽ sử dụng các module loader để kéo vào</t>
+  </si>
+  <si>
+    <t>Khi nói đến "namespace" là nói về "Internal modules". Internal modules là sử dụng namespace và mã lệnh thường bố trí trong cùng 1 tập tin</t>
+  </si>
+  <si>
+    <t>Nói đến "modules" là nói về “External modules”. External modules là bố trí thành nhiều tập tin và ko sử đến từ khóa namespace nữa. Sử dụng đến import và export</t>
+  </si>
+  <si>
+    <t>"use strict";</t>
+  </si>
+  <si>
+    <t>Object.defineProperty(exports, "__esModule", { value: true });</t>
+  </si>
+  <si>
+    <t>validators["ZIP code"] = new ZipCodeValidator_1.ZipCodeValidator();</t>
+  </si>
+  <si>
+    <t>validators["Letters only"] = new LettersOnlyValidator_1.LettersOnlyValidator();</t>
+  </si>
+  <si>
+    <t>strings.forEach((s) =&gt; {</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <t>    &lt;script src="js/jquery.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;script src="js/bootstrap.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;script src="js/system.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;script&gt;</t>
+  </si>
+  <si>
+    <t>      System.defaultJSExtensions = true;</t>
+  </si>
+  <si>
+    <t>    &lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>      System.import("./mjs/07_module/Test");</t>
+  </si>
+  <si>
+    <t>export interface StringValidator {</t>
+  </si>
+  <si>
+    <t>    isAcceptable(s: string): boolean;</t>
+  </si>
+  <si>
+    <t>import { StringValidator } from "./Validation";</t>
+  </si>
+  <si>
+    <t>const lettersRegexp = /^[A-Za-z]+$/;</t>
+  </si>
+  <si>
+    <t>export class LettersOnlyValidator implements StringValidator {</t>
+  </si>
+  <si>
+    <t>    isAcceptable(s: string) {</t>
+  </si>
+  <si>
+    <t>const numberRegexp = /^[0-9]+$/;</t>
+  </si>
+  <si>
+    <t>export class ZipCodeValidator implements StringValidator {</t>
+  </si>
+  <si>
+    <t>import { ZipCodeValidator } from "./ZipCodeValidator";</t>
+  </si>
+  <si>
+    <t>import { LettersOnlyValidator } from "./LettersOnlyValidator";</t>
+  </si>
+  <si>
+    <t>let validators: { [s: string]: StringValidator } = {};</t>
+  </si>
+  <si>
+    <t>validators["ZIP code"] = new ZipCodeValidator();</t>
+  </si>
+  <si>
+    <t>validators["Letters only"] = new LettersOnlyValidator();</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\tsconfig.json</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    "compilerOptions": {</t>
+  </si>
+  <si>
+    <t>        "rootDirs": ["ts"],</t>
+  </si>
+  <si>
+    <t>        "target"    : "ES6",</t>
+  </si>
+  <si>
+    <t>        "module": "commonjs",</t>
+  </si>
+  <si>
+    <t>        "outDir"    : "mjs",</t>
+  </si>
+  <si>
+    <t>        "removeComments" : false,</t>
+  </si>
+  <si>
+    <t>        "watch"     : true</t>
+  </si>
+  <si>
+    <t>    "exclude": [</t>
+  </si>
+  <si>
+    <t>        "css",</t>
+  </si>
+  <si>
+    <t>        "fonts",</t>
+  </si>
+  <si>
+    <t>        "js",</t>
+  </si>
+  <si>
+    <t>        "mjs"</t>
+  </si>
+  <si>
+    <t>    ]</t>
+  </si>
+  <si>
+    <t>  &lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>sử dụng các module systemjs để kéo Test.js vào</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>exports.LettersOnlyValidator = void 0;</t>
+  </si>
+  <si>
+    <t>class LettersOnlyValidator {</t>
+  </si>
+  <si>
+    <t>    isAcceptable(s) {</t>
+  </si>
+  <si>
+    <t>exports.LettersOnlyValidator = LettersOnlyValidator;</t>
+  </si>
+  <si>
+    <t>const ZipCodeValidator_1 = require("./ZipCodeValidator");</t>
+  </si>
+  <si>
+    <t>const LettersOnlyValidator_1 = require("./LettersOnlyValidator");</t>
+  </si>
+  <si>
+    <t>exports.ZipCodeValidator = void 0;</t>
+  </si>
+  <si>
+    <t>class ZipCodeValidator {</t>
+  </si>
+  <si>
+    <t>exports.ZipCodeValidator = ZipCodeValidator;</t>
+  </si>
+  <si>
+    <t>system.js</t>
+  </si>
+  <si>
+    <t>downloaded</t>
+  </si>
+  <si>
+    <t>Download systemjs</t>
+  </si>
+  <si>
+    <t>systemjs v0.19.31-v0.19.43</t>
   </si>
 </sst>
 </file>
@@ -3069,6 +3253,650 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5047619" cy="847619"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D15FAEC-999D-431F-B18E-2D7164F2A7E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20402550"/>
+          <a:ext cx="5047619" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A867B8-7000-256D-DFD4-1A79827E9D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="21269325"/>
+          <a:ext cx="1333500" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B89791-9BF9-4EFD-6C59-F70A7B32C856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3248025" y="28936950"/>
+          <a:ext cx="4705350" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA8C8A0-E76A-1867-CAF1-BE6E0D54B1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2552700" y="24384000"/>
+          <a:ext cx="533400" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA0C6C5-D3E0-75A4-1728-FBE7D7D094C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2457450" y="24545925"/>
+          <a:ext cx="733425" cy="8505825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354EB76D-28A8-4B5A-5807-224579A17C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466975" y="24736425"/>
+          <a:ext cx="847725" cy="11944350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F476830-8D49-7F68-A596-AB521047912A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2676525" y="24917400"/>
+          <a:ext cx="790575" cy="12687300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>589875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE7066F-D209-1CCD-56A1-718AAA87CA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="12954000"/>
+          <a:ext cx="5400000" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F87FEE7-AE8E-4B39-FEEA-338A1C7FB058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4895850" y="15049500"/>
+          <a:ext cx="1685925" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>341528</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99435F4-5DC3-F239-743E-BFCC157C3AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534900" y="4895850"/>
+          <a:ext cx="10971428" cy="3923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>246588</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6630FE81-B3C6-BCF9-EDE0-356E495BB51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12477750" y="866775"/>
+          <a:ext cx="8495238" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>18270</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>75793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1917752A-3BC4-3C4E-E3C1-75A6D459C479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12677775" y="9020175"/>
+          <a:ext cx="6238095" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6272DEF9-9D49-F620-F903-CAF6A50F8C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3028950" y="2638425"/>
+          <a:ext cx="9963150" cy="7143750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3334,8 +4162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W347"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T145" sqref="T145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11096,8 +11924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A99B86D-72D0-4071-9EF8-FDBEBE21DE16}">
   <dimension ref="A3:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="J148" sqref="J148"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13190,4 +14018,3225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52980D-987F-473D-BA7B-640E7932C401}">
+  <dimension ref="A2:AM208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="M201" sqref="M201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="U5" s="22"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="13"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U6" s="14"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="15"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="15"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="15"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="29"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="15"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="29"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="15"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="29"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="15"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="29"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="15"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="29"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="15"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="29"/>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>199</v>
+      </c>
+      <c r="U14" s="14"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="15"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="29"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="15"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="29"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="15"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="29"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="15"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="29"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="15"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="29"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="15"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="29"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="15"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="29"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="15"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="29"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="15"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="29"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="15"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="29"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="15"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="29"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="15"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="29"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="15"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="29"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="15"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="29"/>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" t="s">
+        <v>103</v>
+      </c>
+      <c r="U28" s="14"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="15"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="29"/>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+      <c r="U29" s="14"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="15"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="29"/>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>103</v>
+      </c>
+      <c r="U30" s="14"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="15"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="29"/>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="U31" s="14"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="15"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="29"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
+      </c>
+      <c r="U32" s="14"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="15"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+      <c r="U33" s="14"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="15"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U34" s="14"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="15"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U35" s="14"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="15"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="14"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="15"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="15"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="15"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="15"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U40" s="14"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="15"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U41" s="14"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="15"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="U42" s="14"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="15"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="15"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="15"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="15"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="15"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="15"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="15"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="15"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="15"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U51" s="14"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="15"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U52" s="14"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="15"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="U53" s="14"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="15"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="15"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="15"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="15"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="15"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="15"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="15"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="15"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6"/>
+      <c r="AM61" s="15"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U62" s="14"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="6"/>
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="6"/>
+      <c r="AM62" s="15"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U63" s="14"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="15"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="U64" s="14"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="15"/>
+    </row>
+    <row r="65" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
+      <c r="AA65" s="18"/>
+      <c r="AB65" s="18"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="18"/>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="18"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="19"/>
+    </row>
+    <row r="66" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="7"/>
+      <c r="H90" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="7"/>
+      <c r="H92" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="29"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="29"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="29"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="29"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="29"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="29"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="29"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="29"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="29"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="29"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="24"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" s="34"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" t="s">
+        <v>61</v>
+      </c>
+      <c r="J127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G128" s="37"/>
+      <c r="H128" s="29"/>
+      <c r="I128" t="s">
+        <v>61</v>
+      </c>
+      <c r="J128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G129" s="37"/>
+      <c r="H129" s="29"/>
+      <c r="I129" t="s">
+        <v>61</v>
+      </c>
+      <c r="J129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G130" s="37"/>
+      <c r="H130" s="29"/>
+      <c r="I130" t="s">
+        <v>61</v>
+      </c>
+      <c r="J130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="24"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G131" s="31"/>
+      <c r="H131" s="32"/>
+      <c r="I131" t="s">
+        <v>61</v>
+      </c>
+      <c r="J131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="24"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="29"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="24"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="29"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="29"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="24"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G135" s="24"/>
+      <c r="H135" s="29"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="24"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="29"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="24"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="29"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="24"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="29"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="24"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="29"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="24"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" s="24"/>
+      <c r="H140" s="29"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="24"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G141" s="24"/>
+      <c r="H141" s="29"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="24"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="24"/>
+      <c r="H142" s="29"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="24"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G143" s="24"/>
+      <c r="H143" s="29"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="24"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="29"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="24"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="32"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="4"/>
+      <c r="I152" t="s">
+        <v>61</v>
+      </c>
+      <c r="J152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="10"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="7"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="10"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="7"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="7"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="7"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="7"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="7"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="7"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="7"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="7"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="7"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="7"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="7"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="7"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="10"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="7"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/6.Module-Namepace.xlsx
+++ b/me/2.typescript/6.Module-Namepace.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096CDF75-1FB6-4343-A699-1360A7601D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81350E2E-AEFB-4255-A33A-C4CEC09FB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
     <sheet name="Namepace" sheetId="2" r:id="rId2"/>
     <sheet name="Module(systemjs0.19.31-0.19.43)" sheetId="5" r:id="rId3"/>
+    <sheet name="Module(systemjs0.20.0-0.21.5)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="212">
   <si>
     <t>Export</t>
   </si>
@@ -689,6 +690,36 @@
   </si>
   <si>
     <t>systemjs v0.19.31-v0.19.43</t>
+  </si>
+  <si>
+    <t>systemjs v0.20.0-v0.21.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    …</t>
+  </si>
+  <si>
+    <t>      System.config({</t>
+  </si>
+  <si>
+    <t>        baseURL: "/",</t>
+  </si>
+  <si>
+    <t>        packages: {</t>
+  </si>
+  <si>
+    <t>          "": {</t>
+  </si>
+  <si>
+    <t>            defaultExtension: "js",</t>
+  </si>
+  <si>
+    <t>          },</t>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <t>      });</t>
   </si>
 </sst>
 </file>
@@ -3897,6 +3928,205 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE44CBF6-E4EC-4B7D-B576-2DF399FA0C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7048500"/>
+          <a:ext cx="5000000" cy="876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79401389-BFD3-4081-9302-00095B4157E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="7962900"/>
+          <a:ext cx="1228725" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CF86D7-870A-4246-B02D-FBD153C3D5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2981325" y="11210925"/>
+          <a:ext cx="285750" cy="6581775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589880</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>142582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6521572-E9A1-4015-B663-D9C1D91F149B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="18945225"/>
+          <a:ext cx="5361905" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14024,8 +14254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52980D-987F-473D-BA7B-640E7932C401}">
   <dimension ref="A2:AM208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="M201" sqref="M201"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17239,4 +17469,639 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15403539-AB2C-40D6-8F10-B7792E28BF3E}">
+  <dimension ref="A2:J97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="E14" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="D32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="E57" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="34"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="E69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="F70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="F72" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="F73" t="s">
+        <v>60</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="35"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/6.Module-Namepace.xlsx
+++ b/me/2.typescript/6.Module-Namepace.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81350E2E-AEFB-4255-A33A-C4CEC09FB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102B85E-31F3-4F52-940A-11606084BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
     <sheet name="Namepace" sheetId="2" r:id="rId2"/>
     <sheet name="Module(systemjs0.19.31-0.19.43)" sheetId="5" r:id="rId3"/>
     <sheet name="Module(systemjs0.20.0-0.21.5)" sheetId="6" r:id="rId4"/>
+    <sheet name="Module without systemjs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="229">
   <si>
     <t>Export</t>
   </si>
@@ -720,6 +721,143 @@
   </si>
   <si>
     <t>      });</t>
+  </si>
+  <si>
+    <t>systemjs v4.1.0 trở đi thì ko import được như ở sheet Module(systemjs0.19.31-0.19.43) và Module(systemjs0.20.0-0.21.5) nên mình sẽ ko dùng systemjs</t>
+  </si>
+  <si>
+    <t>        // "module": "commonjs",</t>
+  </si>
+  <si>
+    <t>comment code</t>
+  </si>
+  <si>
+    <t>export class LettersOnlyValidator {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ko dùng  "module": "commonjs" nên nội dung compile ra cũng khác so với ở </t>
+  </si>
+  <si>
+    <t>sheet Module(systemjs0.19.31-0.19.43) và Module(systemjs0.20.0-0.21.5)</t>
+  </si>
+  <si>
+    <t>export {};</t>
+  </si>
+  <si>
+    <t>export class ZipCodeValidator {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;script </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type="module"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> src="./mjs/07_module/Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>javascrip sau khi được compile ra thì import file ko có đuôi .js đằng sau</t>
+  </si>
+  <si>
+    <r>
+      <t>import { ZipCodeValidator } from "./ZipCodeValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import { LettersOnlyValidator } from "./LettersOnlyValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <t>Phải tự thêm đuôi .js đằng sau</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>Phải có type="module" và đuôi .js</t>
+  </si>
+  <si>
+    <t>Thấy rằng chỉ có tập tin Test.js được kéo vào</t>
+  </si>
+  <si>
+    <t>Tuy nhiên xem ở Network có thể thấy rằng ZipCodeValidator.js và LettersOnlyValidator.js cũng được kéo vào</t>
   </si>
 </sst>
 </file>
@@ -4127,6 +4265,505 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB973B95-B6D3-F4A2-C9BB-39FAA32A3571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2438400" y="6248400"/>
+          <a:ext cx="3105150" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>427962</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F9BC48-5D79-5CC8-4117-A5BEF90F08A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="5304762" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DD4152-AB17-25EB-2150-915523C04B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="11553825"/>
+          <a:ext cx="2305050" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F858376-BEB3-E88B-3C6E-7F4D21505A88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="7781925"/>
+          <a:ext cx="4914900" cy="6915150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29456897-1AAF-9642-9476-97A76A7856EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="209550" y="20145375"/>
+          <a:ext cx="85725" cy="7486650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A118CC8-BD46-9A9F-BC3E-75320E9CA99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3295650" y="15240000"/>
+          <a:ext cx="790575" cy="3038475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504152</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCC03E5-867A-BA6B-6300-A184609401AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30880050"/>
+          <a:ext cx="5380952" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18223</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>180448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818B2B30-147E-5DC9-855A-F684489C9FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="33889950"/>
+          <a:ext cx="6619048" cy="4219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>141639</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>37584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33EAA97-4547-7D59-9C75-3907EAA43D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="38795325"/>
+          <a:ext cx="9885714" cy="4123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1E532A-8CF4-797C-09FE-6A62A68ECAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2686050" y="28184475"/>
+          <a:ext cx="1219200" cy="13658850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14254,8 +14891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52980D-987F-473D-BA7B-640E7932C401}">
   <dimension ref="A2:AM208"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="N197" sqref="N197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17475,8 +18112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15403539-AB2C-40D6-8F10-B7792E28BF3E}">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18104,4 +18741,1591 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6889B6B5-940A-435A-B8DC-5E9C35370F64}">
+  <dimension ref="A2:M203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="G228" sqref="F228:G228"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="D32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="D68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="E76" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="34"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" t="s">
+        <v>102</v>
+      </c>
+      <c r="M78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" t="s">
+        <v>61</v>
+      </c>
+      <c r="J79" t="s">
+        <v>102</v>
+      </c>
+      <c r="M79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+      <c r="I80" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="F84" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="E87" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="E88" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="F90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="F91" t="s">
+        <v>59</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="F92" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="D93" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="13"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="15"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="15"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="15"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="15"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="15"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="15"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="15"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="15"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="15"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="15"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="15"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="15"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="15"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="15"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="15"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="15"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="15"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="15"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="15"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="15"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="15"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="15"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="15"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="15"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="15"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="15"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="15"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="15"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="15"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="15"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="15"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="15"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="15"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="15"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="15"/>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="17"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="19"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="7"/>
+      <c r="I141" t="s">
+        <v>61</v>
+      </c>
+      <c r="J141" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="10"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="4"/>
+      <c r="L147" t="s">
+        <v>61</v>
+      </c>
+      <c r="M147" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="7"/>
+      <c r="L148" t="s">
+        <v>61</v>
+      </c>
+      <c r="M148" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="7"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="7"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="7"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="7"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="7"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="7"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="7"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="7"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="7"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="10"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.typescript/6.Module-Namepace.xlsx
+++ b/me/2.typescript/6.Module-Namepace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102B85E-31F3-4F52-940A-11606084BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BAB157-35C2-4F00-8912-23100E8E7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Module(systemjs0.19.31-0.19.43)" sheetId="5" r:id="rId3"/>
     <sheet name="Module(systemjs0.20.0-0.21.5)" sheetId="6" r:id="rId4"/>
     <sheet name="Module without systemjs" sheetId="7" r:id="rId5"/>
+    <sheet name="Module(require.js)" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="254">
   <si>
     <t>Export</t>
   </si>
@@ -858,6 +859,81 @@
   </si>
   <si>
     <t>Tuy nhiên xem ở Network có thể thấy rằng ZipCodeValidator.js và LettersOnlyValidator.js cũng được kéo vào</t>
+  </si>
+  <si>
+    <t>Đối với module amd thì có thể sử dụng require.js để load javascript được compile ra</t>
+  </si>
+  <si>
+    <t>require.js</t>
+  </si>
+  <si>
+    <t>        "module": "amd",</t>
+  </si>
+  <si>
+    <t>    &lt;!-- &lt;script type="module" src="./mjs/07_module/Test.js"&gt;&lt;/script&gt; --&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;script data-main="./mjs/07_module/Test" src="./js/require.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>define(["require", "exports"], function (require, exports) {</t>
+  </si>
+  <si>
+    <t>    "use strict";</t>
+  </si>
+  <si>
+    <t>    Object.defineProperty(exports, "__esModule", { value: true });</t>
+  </si>
+  <si>
+    <t>    exports.LettersOnlyValidator = void 0;</t>
+  </si>
+  <si>
+    <t>    exports.LettersOnlyValidator = LettersOnlyValidator;</t>
+  </si>
+  <si>
+    <t>define(["require", "exports", "./ZipCodeValidator", "./LettersOnlyValidator"], function (require, exports, ZipCodeValidator_1, LettersOnlyValidator_1) {</t>
+  </si>
+  <si>
+    <t>    // Some samples to try</t>
+  </si>
+  <si>
+    <t>    let strings = ["Hello", "98052", "101"];</t>
+  </si>
+  <si>
+    <t>    // Validators to use</t>
+  </si>
+  <si>
+    <t>    let validators = {};</t>
+  </si>
+  <si>
+    <t>    validators["ZIP code"] = new ZipCodeValidator_1.ZipCodeValidator();</t>
+  </si>
+  <si>
+    <t>    validators["Letters only"] = new LettersOnlyValidator_1.LettersOnlyValidator();</t>
+  </si>
+  <si>
+    <t>    // Show whether each string passed each validator</t>
+  </si>
+  <si>
+    <t>    strings.forEach((s) =&gt; {</t>
+  </si>
+  <si>
+    <t>        for (let name in validators) {</t>
+  </si>
+  <si>
+    <t>            console.log(`"${s}" - ${validators[name].isAcceptable(s) ? "matches" : "does not match"} ${name}`);</t>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <t>    exports.ZipCodeValidator = void 0;</t>
+  </si>
+  <si>
+    <t>    exports.ZipCodeValidator = ZipCodeValidator;</t>
+  </si>
+  <si>
+    <t>compiled file</t>
   </si>
 </sst>
 </file>
@@ -4764,6 +4840,747 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>435062</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B542B8D5-59F0-0523-9E5B-13CF3A9238C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="495300"/>
+          <a:ext cx="10055312" cy="5324475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570530</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AD2A5A-FB69-B9D7-1121-E60D2B3DF7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="6134100"/>
+          <a:ext cx="7761905" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474895</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>94429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339B71F8-B008-C2B6-22F0-8501F0F85EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9525000"/>
+          <a:ext cx="10838095" cy="6571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323437</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A4893B-9EE6-75BC-30F0-AEB287A07728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="16506825"/>
+          <a:ext cx="11229562" cy="5705475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246336</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>56709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA7881-8448-DB82-5607-F3D5543618B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="22631400"/>
+          <a:ext cx="10514286" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195056</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A8741B-8001-E1C5-0F31-61AC8147D7AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3038475" y="22212300"/>
+          <a:ext cx="3252581" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570823</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>85599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056CC171-33C2-8FDD-944C-C621620EDDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="36033075"/>
+          <a:ext cx="5419048" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299699</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>85599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93270DFE-BEAD-F5F0-F8AC-0E8B32C2D8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3347699" y="37042599"/>
+          <a:ext cx="33676" cy="2590926"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D94C98-9669-3187-B965-D7754168266F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3200400" y="25174575"/>
+          <a:ext cx="4743450" cy="19497675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8780D474-1647-0E50-9461-47188EE139B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3038475" y="40138350"/>
+          <a:ext cx="180975" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E76076-BCCB-F296-2E57-766CBD61EBF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4362450" y="25146000"/>
+          <a:ext cx="5219700" cy="19554825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E208AC71-0EE2-4965-5193-216C7F250C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="27974925"/>
+          <a:ext cx="1123950" cy="16716375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A340D15D-7527-FBBC-376E-83664F3FEE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2438400" y="39985950"/>
+          <a:ext cx="666750" cy="5629275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428121</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>9180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D796CA29-C60D-62A4-1C40-4D5D00AD8DDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="56702325"/>
+          <a:ext cx="4028571" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26CD26F-6ACC-CBD1-A9FA-25856418466E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1638300" y="352425"/>
+          <a:ext cx="9525" cy="32708850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14891,8 +15708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52980D-987F-473D-BA7B-640E7932C401}">
   <dimension ref="A2:AM208"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="N197" sqref="N197"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18112,8 +18929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15403539-AB2C-40D6-8F10-B7792E28BF3E}">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:N22"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18747,8 +19564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6889B6B5-940A-435A-B8DC-5E9C35370F64}">
   <dimension ref="A2:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="G228" sqref="F228:G228"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20328,4 +21145,1898 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E215672D-64B0-4BF3-82E9-13158DE4681C}">
+  <dimension ref="A2:Q297"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="H175" sqref="H175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="D144" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="D145" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="D146" t="s">
+        <v>45</v>
+      </c>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="E147" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="H147" s="7"/>
+      <c r="I147" t="s">
+        <v>61</v>
+      </c>
+      <c r="J147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="D148" t="s">
+        <v>46</v>
+      </c>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="E149" t="s">
+        <v>47</v>
+      </c>
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="E150" t="s">
+        <v>48</v>
+      </c>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="E151" t="s">
+        <v>49</v>
+      </c>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="E152" t="s">
+        <v>50</v>
+      </c>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="D153" t="s">
+        <v>51</v>
+      </c>
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="E154" t="s">
+        <v>52</v>
+      </c>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="E155" t="s">
+        <v>47</v>
+      </c>
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="F156" t="s">
+        <v>53</v>
+      </c>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="E157" t="s">
+        <v>48</v>
+      </c>
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="E158" t="s">
+        <v>49</v>
+      </c>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="E159" t="s">
+        <v>50</v>
+      </c>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="E160" t="s">
+        <v>56</v>
+      </c>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="F161" t="s">
+        <v>57</v>
+      </c>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="F162" t="s">
+        <v>58</v>
+      </c>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="F163" t="s">
+        <v>59</v>
+      </c>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="F164" t="s">
+        <v>60</v>
+      </c>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="D165" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H165" s="7"/>
+      <c r="I165" t="s">
+        <v>61</v>
+      </c>
+      <c r="J165" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="8"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="10"/>
+      <c r="I166" t="s">
+        <v>61</v>
+      </c>
+      <c r="J166" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="7"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="7"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="7"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="7"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="7"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="7"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="7"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="7"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="7"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="7"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="7"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="10"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+      <c r="C199" t="s">
+        <v>41</v>
+      </c>
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="5"/>
+      <c r="C200" t="s">
+        <v>42</v>
+      </c>
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="D201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H201" s="7"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+      <c r="D202" t="s">
+        <v>44</v>
+      </c>
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="5"/>
+      <c r="D203" t="s">
+        <v>45</v>
+      </c>
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+      <c r="D204" t="s">
+        <v>46</v>
+      </c>
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="E205" t="s">
+        <v>47</v>
+      </c>
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="E206" t="s">
+        <v>48</v>
+      </c>
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+      <c r="E207" t="s">
+        <v>49</v>
+      </c>
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+      <c r="E208" t="s">
+        <v>50</v>
+      </c>
+      <c r="H208" s="7"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+      <c r="E209" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F209" s="34"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="4"/>
+      <c r="I209" t="s">
+        <v>61</v>
+      </c>
+      <c r="J209" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+      <c r="E210" s="35"/>
+      <c r="F210" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H210" s="7"/>
+      <c r="I210" t="s">
+        <v>61</v>
+      </c>
+      <c r="J210" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+      <c r="E211" s="35"/>
+      <c r="F211" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H211" s="7"/>
+      <c r="I211" t="s">
+        <v>61</v>
+      </c>
+      <c r="J211" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="E212" s="35"/>
+      <c r="F212" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H212" s="7"/>
+      <c r="I212" t="s">
+        <v>61</v>
+      </c>
+      <c r="J212" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="E213" s="38"/>
+      <c r="F213" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G213" s="9"/>
+      <c r="H213" s="10"/>
+      <c r="I213" t="s">
+        <v>61</v>
+      </c>
+      <c r="J213" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="D214" t="s">
+        <v>51</v>
+      </c>
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="E215" t="s">
+        <v>52</v>
+      </c>
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="E216" t="s">
+        <v>47</v>
+      </c>
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="F217" t="s">
+        <v>53</v>
+      </c>
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="E218" t="s">
+        <v>48</v>
+      </c>
+      <c r="H218" s="7"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="E219" t="s">
+        <v>49</v>
+      </c>
+      <c r="H219" s="7"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="E220" t="s">
+        <v>50</v>
+      </c>
+      <c r="H220" s="7"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+      <c r="E221" t="s">
+        <v>56</v>
+      </c>
+      <c r="H221" s="7"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="F222" t="s">
+        <v>57</v>
+      </c>
+      <c r="H222" s="7"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+      <c r="F223" t="s">
+        <v>58</v>
+      </c>
+      <c r="H223" s="7"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="F224" t="s">
+        <v>59</v>
+      </c>
+      <c r="H224" s="7"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="F225" t="s">
+        <v>60</v>
+      </c>
+      <c r="H225" s="7"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+      <c r="D226" t="s">
+        <v>54</v>
+      </c>
+      <c r="H226" s="7"/>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B227" s="8"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="10"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="4"/>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="7"/>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="7"/>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="7"/>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B235" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="7"/>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="7"/>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B237" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="10"/>
+    </row>
+    <row r="239" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A240" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="12"/>
+      <c r="L240" s="12"/>
+      <c r="M240" s="12"/>
+      <c r="N240" s="12"/>
+      <c r="O240" s="12"/>
+      <c r="P240" s="12"/>
+      <c r="Q240" s="13"/>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241" s="14"/>
+      <c r="B241" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="15"/>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
+      <c r="B242" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="15"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A243" s="14"/>
+      <c r="B243" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="15"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
+      <c r="B244" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="15"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
+      <c r="B245" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="15"/>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A246" s="14"/>
+      <c r="B246" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="7"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="15"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A247" s="14"/>
+      <c r="B247" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="15"/>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A248" s="14"/>
+      <c r="B248" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="15"/>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A249" s="14"/>
+      <c r="B249" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="15"/>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A250" s="14"/>
+      <c r="B250" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+      <c r="Q250" s="15"/>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A251" s="14"/>
+      <c r="B251" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="15"/>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A252" s="14"/>
+      <c r="B252" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+      <c r="M252" s="6"/>
+      <c r="N252" s="6"/>
+      <c r="O252" s="6"/>
+      <c r="P252" s="6"/>
+      <c r="Q252" s="15"/>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A253" s="14"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="15"/>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A254" s="14"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="15"/>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+      <c r="M255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
+      <c r="Q255" s="15"/>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A256" s="14"/>
+      <c r="B256" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="4"/>
+      <c r="Q256" s="15"/>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A257" s="14"/>
+      <c r="B257" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="6"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="7"/>
+      <c r="Q257" s="15"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A258" s="14"/>
+      <c r="B258" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="6"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="7"/>
+      <c r="Q258" s="15"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A259" s="14"/>
+      <c r="B259" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="7"/>
+      <c r="Q259" s="15"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A260" s="14"/>
+      <c r="B260" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+      <c r="M260" s="6"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="7"/>
+      <c r="Q260" s="15"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A261" s="14"/>
+      <c r="B261" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+      <c r="M261" s="6"/>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+      <c r="P261" s="7"/>
+      <c r="Q261" s="15"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A262" s="14"/>
+      <c r="B262" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+      <c r="M262" s="6"/>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+      <c r="P262" s="7"/>
+      <c r="Q262" s="15"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A263" s="14"/>
+      <c r="B263" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+      <c r="M263" s="6"/>
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="7"/>
+      <c r="Q263" s="15"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A264" s="14"/>
+      <c r="B264" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="6"/>
+      <c r="M264" s="6"/>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="7"/>
+      <c r="Q264" s="15"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A265" s="14"/>
+      <c r="B265" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="6"/>
+      <c r="M265" s="6"/>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+      <c r="P265" s="7"/>
+      <c r="Q265" s="15"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A266" s="14"/>
+      <c r="B266" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+      <c r="M266" s="6"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="7"/>
+      <c r="Q266" s="15"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A267" s="14"/>
+      <c r="B267" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+      <c r="M267" s="6"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="7"/>
+      <c r="Q267" s="15"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A268" s="14"/>
+      <c r="B268" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+      <c r="M268" s="6"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="7"/>
+      <c r="Q268" s="15"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A269" s="14"/>
+      <c r="B269" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="6"/>
+      <c r="M269" s="6"/>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="7"/>
+      <c r="Q269" s="15"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A270" s="14"/>
+      <c r="B270" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="6"/>
+      <c r="M270" s="6"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="7"/>
+      <c r="Q270" s="15"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" s="14"/>
+      <c r="B271" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="9"/>
+      <c r="I271" s="9"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="9"/>
+      <c r="L271" s="9"/>
+      <c r="M271" s="9"/>
+      <c r="N271" s="9"/>
+      <c r="O271" s="9"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="15"/>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" s="14"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="6"/>
+      <c r="L272" s="6"/>
+      <c r="M272" s="6"/>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+      <c r="Q272" s="15"/>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A273" s="14"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="6"/>
+      <c r="L273" s="6"/>
+      <c r="M273" s="6"/>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+      <c r="Q273" s="15"/>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A274" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="6"/>
+      <c r="L274" s="6"/>
+      <c r="M274" s="6"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+      <c r="Q274" s="15"/>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A275" s="14"/>
+      <c r="B275" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="4"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+      <c r="M275" s="6"/>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="15"/>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" s="14"/>
+      <c r="B276" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="7"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="6"/>
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+      <c r="Q276" s="15"/>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A277" s="14"/>
+      <c r="B277" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="7"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="6"/>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+      <c r="Q277" s="15"/>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A278" s="14"/>
+      <c r="B278" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="6"/>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+      <c r="Q278" s="15"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" s="14"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="6"/>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+      <c r="Q279" s="15"/>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A280" s="14"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="6"/>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="15"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A281" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="6"/>
+      <c r="L281" s="6"/>
+      <c r="M281" s="6"/>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+      <c r="Q281" s="15"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A282" s="14"/>
+      <c r="B282" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="6"/>
+      <c r="L282" s="6"/>
+      <c r="M282" s="6"/>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+      <c r="Q282" s="15"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A283" s="14"/>
+      <c r="B283" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="7"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="6"/>
+      <c r="M283" s="6"/>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="15"/>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A284" s="14"/>
+      <c r="B284" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="7"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="6"/>
+      <c r="L284" s="6"/>
+      <c r="M284" s="6"/>
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+      <c r="Q284" s="15"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A285" s="14"/>
+      <c r="B285" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="7"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+      <c r="K285" s="6"/>
+      <c r="L285" s="6"/>
+      <c r="M285" s="6"/>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+      <c r="Q285" s="15"/>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A286" s="14"/>
+      <c r="B286" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="7"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+      <c r="K286" s="6"/>
+      <c r="L286" s="6"/>
+      <c r="M286" s="6"/>
+      <c r="N286" s="6"/>
+      <c r="O286" s="6"/>
+      <c r="P286" s="6"/>
+      <c r="Q286" s="15"/>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A287" s="14"/>
+      <c r="B287" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="7"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+      <c r="K287" s="6"/>
+      <c r="L287" s="6"/>
+      <c r="M287" s="6"/>
+      <c r="N287" s="6"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="6"/>
+      <c r="Q287" s="15"/>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A288" s="14"/>
+      <c r="B288" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+      <c r="K288" s="6"/>
+      <c r="L288" s="6"/>
+      <c r="M288" s="6"/>
+      <c r="N288" s="6"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="6"/>
+      <c r="Q288" s="15"/>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A289" s="14"/>
+      <c r="B289" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="7"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="6"/>
+      <c r="M289" s="6"/>
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
+      <c r="Q289" s="15"/>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A290" s="14"/>
+      <c r="B290" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="7"/>
+      <c r="I290" s="6"/>
+      <c r="J290" s="6"/>
+      <c r="K290" s="6"/>
+      <c r="L290" s="6"/>
+      <c r="M290" s="6"/>
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
+      <c r="Q290" s="15"/>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A291" s="14"/>
+      <c r="B291" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="7"/>
+      <c r="I291" s="6"/>
+      <c r="J291" s="6"/>
+      <c r="K291" s="6"/>
+      <c r="L291" s="6"/>
+      <c r="M291" s="6"/>
+      <c r="N291" s="6"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="6"/>
+      <c r="Q291" s="15"/>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A292" s="14"/>
+      <c r="B292" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="7"/>
+      <c r="I292" s="6"/>
+      <c r="J292" s="6"/>
+      <c r="K292" s="6"/>
+      <c r="L292" s="6"/>
+      <c r="M292" s="6"/>
+      <c r="N292" s="6"/>
+      <c r="O292" s="6"/>
+      <c r="P292" s="6"/>
+      <c r="Q292" s="15"/>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A293" s="14"/>
+      <c r="B293" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="10"/>
+      <c r="I293" s="6"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="6"/>
+      <c r="L293" s="6"/>
+      <c r="M293" s="6"/>
+      <c r="N293" s="6"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="6"/>
+      <c r="Q293" s="15"/>
+    </row>
+    <row r="294" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="17"/>
+      <c r="B294" s="18"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="18"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="18"/>
+      <c r="H294" s="18"/>
+      <c r="I294" s="18"/>
+      <c r="J294" s="18"/>
+      <c r="K294" s="18"/>
+      <c r="L294" s="18"/>
+      <c r="M294" s="18"/>
+      <c r="N294" s="18"/>
+      <c r="O294" s="18"/>
+      <c r="P294" s="18"/>
+      <c r="Q294" s="19"/>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.typescript/6.Module-Namepace.xlsx
+++ b/me/2.typescript/6.Module-Namepace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BAB157-35C2-4F00-8912-23100E8E7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D973F1-4043-4604-9799-3FABBD4D4BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Module(systemjs0.20.0-0.21.5)" sheetId="6" r:id="rId4"/>
     <sheet name="Module without systemjs" sheetId="7" r:id="rId5"/>
     <sheet name="Module(require.js)" sheetId="8" r:id="rId6"/>
+    <sheet name="Import Export" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="288">
   <si>
     <t>Export</t>
   </si>
@@ -935,6 +936,255 @@
   <si>
     <t>compiled file</t>
   </si>
+  <si>
+    <t>export class</t>
+  </si>
+  <si>
+    <t>import.ts</t>
+  </si>
+  <si>
+    <t>MModule.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\07_module\import.ts</t>
+  </si>
+  <si>
+    <t>import { Abc } from "./MModule";</t>
+  </si>
+  <si>
+    <t>let obj = new Abc();</t>
+  </si>
+  <si>
+    <t>obj.showInfo();</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\07_module\MModule.ts</t>
+  </si>
+  <si>
+    <t>export class Abc {</t>
+  </si>
+  <si>
+    <t>    showInfo(): void {</t>
+  </si>
+  <si>
+    <t>        console.log("Abc.showInfo");</t>
+  </si>
+  <si>
+    <t>import.js</t>
+  </si>
+  <si>
+    <t>MModule.js</t>
+  </si>
+  <si>
+    <t>is compiled</t>
+  </si>
+  <si>
+    <t>    &lt;script data-main="./mjs/07_module/import" src="./js/require.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>export function</t>
+  </si>
+  <si>
+    <t>export function printAbc() {</t>
+  </si>
+  <si>
+    <t>    console.log("Abc.printAbc");</t>
+  </si>
+  <si>
+    <t>printAbc();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import { Abc, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>printAbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } from "./MModule";</t>
+    </r>
+  </si>
+  <si>
+    <t>Đổi tên khi import</t>
+  </si>
+  <si>
+    <t>let obj = new MAbc();</t>
+  </si>
+  <si>
+    <t>pr();</t>
+  </si>
+  <si>
+    <r>
+      <t>import { Abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as MAbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, printAbc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } from "./MModule";</t>
+    </r>
+  </si>
+  <si>
+    <t>Abc được import và đổi tên thành Mabc, printAbc được import và đổi tên thành pr</t>
+  </si>
+  <si>
+    <t>import tất cả</t>
+  </si>
+  <si>
+    <t>Trong import.ts sử dụng cả  class Abc và function printAbc trong tập tin MModule.ts nên có thể sử dụng import tất cả</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MModule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from "./MModule";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let obj = new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MModule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Abc();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MModule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.printAbc();</t>
+    </r>
+  </si>
+  <si>
+    <t>①export class</t>
+  </si>
+  <si>
+    <t>②export function</t>
+  </si>
+  <si>
+    <t>③Đổi tên khi import</t>
+  </si>
+  <si>
+    <t>④import tất cả</t>
+  </si>
 </sst>
 </file>
 
@@ -1179,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1223,6 +1473,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5581,6 +5834,1052 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09EFE09-4895-66D8-C144-50F7B2132B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="1314450"/>
+          <a:ext cx="600075" cy="7534275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>570667</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48B84DF-6B06-FFDF-5663-18D5E2D168C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10487025"/>
+          <a:ext cx="6666667" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EFA8FD-25FB-DDE5-5698-86665F4823D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="11420475"/>
+          <a:ext cx="1800225" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DED745-7365-1CE2-A8F2-516FFBB8E4B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3181350" y="14649450"/>
+          <a:ext cx="266700" cy="5248275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428124</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C7447E-7E08-7D95-F446-1EEF81FF43C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="7934325"/>
+          <a:ext cx="4009524" cy="1761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E000CDC-1828-0F91-0ECD-C81B7E61FAB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="9277350"/>
+          <a:ext cx="1409700" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB72039-D9DD-1735-CB0B-84789492B5BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2143125" y="7620000"/>
+          <a:ext cx="428625" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9D3342-F078-3F82-87E3-37017B94AF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="27251025"/>
+          <a:ext cx="190500" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>513524</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>123714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5535986-5B49-00DF-8053-CE4E7CB47F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31270575"/>
+          <a:ext cx="6609524" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33F5177-54AA-F6CF-BAFF-70F3505C14D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="32156400"/>
+          <a:ext cx="1533525" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113800</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>161679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837514EE-0A0F-6706-41DF-CFE43357CEAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="28508325"/>
+          <a:ext cx="4000000" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627DED38-0AD6-3A60-8334-1FEF2A4B8014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1304925" y="30222825"/>
+          <a:ext cx="3657600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C779A09C-7410-6EFC-2327-273468A6275E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="46091475"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2BBC0B-E042-CDED-D2A6-C849D4BC5728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="752475" y="46129575"/>
+          <a:ext cx="1952625" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589874</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>152289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605CC7D5-D3A6-6C72-EC0C-719B60D6BC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="47701200"/>
+          <a:ext cx="5409524" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA7764C-5C01-A61D-951E-6C64654E2ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="48606075"/>
+          <a:ext cx="1885950" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485271</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>56912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F789BEE8-94DF-B594-3A0B-FEAD3E0A52F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="56302275"/>
+          <a:ext cx="4028571" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A3FD24-5529-2F75-D9A4-ADB000D4B26E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="65360550"/>
+          <a:ext cx="85725" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035C3C66-DFCC-146B-A2A4-73A258D79787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1152525" y="65370075"/>
+          <a:ext cx="381000" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589721</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>142767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41091B45-2A00-011B-9761-95F6C22CDE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="66970275"/>
+          <a:ext cx="6628571" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418596</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>28337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AFB591-96FE-0BA2-6B0C-A3B9A1119880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="75533250"/>
+          <a:ext cx="4028571" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18929,7 +20228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15403539-AB2C-40D6-8F10-B7792E28BF3E}">
   <dimension ref="A2:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
@@ -19564,8 +20863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6889B6B5-940A-435A-B8DC-5E9C35370F64}">
   <dimension ref="A2:M203"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21151,8 +22450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E215672D-64B0-4BF3-82E9-13158DE4681C}">
   <dimension ref="A2:Q297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H175" sqref="H175"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23039,4 +24338,7262 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA3CF8E-7EDC-43AE-8732-2F63E8B5B5D9}">
+  <dimension ref="A2:Q407"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="15"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="15"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="15"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="15"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="15"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="15"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="15"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="15"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="15"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="43"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="43"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="15"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="43"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="15"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="43"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="15"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="43"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="31"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="15"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="43"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="37"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="15"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="43"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="15"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="43"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" s="37"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="15"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="43"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="15"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="43"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="15"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="43"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="15"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="43"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="15"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="43"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="15"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="43"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="15"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="15"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="43"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="15"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="43"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G90" s="37"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="15"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="43"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="15"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="43"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G92" s="37"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="15"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="43"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G93" s="37"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="15"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="43"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="37"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="15"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="43"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="37"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="15"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="43"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="15"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="43"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="15"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="15"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="15"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="15"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="15"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="15"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="15"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="15"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="15"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="15"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="15"/>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="19"/>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="13"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="15"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="15"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="15"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="15"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="15"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="15"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="15"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="15"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="15"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="15"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="15"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="15"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F125" s="36"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="15"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="15"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="15"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="15"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="15"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="15"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="15"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="15"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="15"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="15"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="15"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="15"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="15"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="15"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="15"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="15"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="15"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="15"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="15"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="B144" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="15"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="B145" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="15"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="15"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="14"/>
+      <c r="B147" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="15"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="B148" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="15"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="15"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="14"/>
+      <c r="B150" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="15"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
+      <c r="B151" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="15"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" s="39"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="15"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="15"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="15"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="15"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
+      <c r="B156" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="15"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="15"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="14"/>
+      <c r="B158" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="15"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="B159" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="15"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="15"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="15"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="15"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="15"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="B164" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="15"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="15"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="15"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="15"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="15"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169" s="14"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="15"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" s="14"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="15"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="15"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172" s="43"/>
+      <c r="B172" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="15"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" s="43"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="29"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="15"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" s="43"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="29"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="15"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" s="43"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="15"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" s="43"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" s="37"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="29"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="15"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" s="43"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="37"/>
+      <c r="D177" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E177" s="37"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="15"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" s="43"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="37"/>
+      <c r="E178" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F178" s="37"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="15"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" s="43"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E179" s="37"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="29"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="15"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" s="43"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="29"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="15"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" s="43"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F181" s="37"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="29"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="15"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" s="43"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="29"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="15"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" s="43"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="37"/>
+      <c r="E183" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F183" s="37"/>
+      <c r="G183" s="37"/>
+      <c r="H183" s="29"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="15"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" s="43"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="37"/>
+      <c r="D184" s="37"/>
+      <c r="E184" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F184" s="37"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="29"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="15"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185" s="43"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="37"/>
+      <c r="D185" s="37"/>
+      <c r="E185" s="37"/>
+      <c r="F185" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G185" s="26"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="15"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" s="43"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="37"/>
+      <c r="F186" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G186" s="31"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="15"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" s="43"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="37"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G187" s="37"/>
+      <c r="H187" s="29"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="15"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" s="43"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="37"/>
+      <c r="D188" s="37"/>
+      <c r="E188" s="37"/>
+      <c r="F188" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G188" s="37"/>
+      <c r="H188" s="29"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="15"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" s="43"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="37"/>
+      <c r="D189" s="37"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G189" s="37"/>
+      <c r="H189" s="29"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="15"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" s="43"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G190" s="37"/>
+      <c r="H190" s="29"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="15"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" s="43"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="37"/>
+      <c r="D191" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="29"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="15"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" s="43"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F192" s="37"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="29"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="15"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193" s="43"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="29"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="15"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194" s="43"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F194" s="37"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="29"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="15"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195" s="43"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F195" s="37"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="29"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="15"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" s="43"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="29"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="15"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" s="43"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="37"/>
+      <c r="E197" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F197" s="37"/>
+      <c r="G197" s="37"/>
+      <c r="H197" s="29"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="15"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198" s="43"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="37"/>
+      <c r="E198" s="37"/>
+      <c r="F198" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G198" s="37"/>
+      <c r="H198" s="29"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="15"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" s="43"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="37"/>
+      <c r="D199" s="37"/>
+      <c r="E199" s="37"/>
+      <c r="F199" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G199" s="37"/>
+      <c r="H199" s="29"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="15"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" s="43"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="37"/>
+      <c r="F200" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G200" s="37"/>
+      <c r="H200" s="29"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="15"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" s="43"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="37"/>
+      <c r="E201" s="37"/>
+      <c r="F201" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G201" s="37"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="15"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" s="43"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="37"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G202" s="37"/>
+      <c r="H202" s="29"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="15"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203" s="43"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G203" s="37"/>
+      <c r="H203" s="29"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="15"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204" s="43"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E204" s="37"/>
+      <c r="F204" s="37"/>
+      <c r="G204" s="37"/>
+      <c r="H204" s="29"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="15"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205" s="43"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E205" s="31"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="31"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="15"/>
+    </row>
+    <row r="206" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="17"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="18"/>
+      <c r="L206" s="18"/>
+      <c r="M206" s="18"/>
+      <c r="N206" s="18"/>
+      <c r="O206" s="19"/>
+    </row>
+    <row r="209" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A210" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="13"/>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A211" s="14"/>
+      <c r="B211" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="15"/>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A212" s="14"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="15"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A213" s="14"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="15"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A214" s="14"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="15"/>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A215" s="14"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="15"/>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A216" s="14"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="15"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A217" s="14"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="15"/>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A218" s="14"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="15"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219" s="14"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="15"/>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A220" s="14"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="15"/>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A221" s="14"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="15"/>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A222" s="14"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="15"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A223" s="14"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F223" s="36"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="15"/>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A224" s="14"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="15"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A225" s="14"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="15"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A226" s="14"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="15"/>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A227" s="14"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="15"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A228" s="14"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="15"/>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A229" s="14"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="15"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" s="14"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="15"/>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A231" s="14"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G231" s="6"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="15"/>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A232" s="14"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G232" s="6"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="15"/>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A233" s="14"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G233" s="6"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="15"/>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A234" s="14"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G234" s="6"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="15"/>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A235" s="14"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G235" s="6"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="15"/>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A236" s="14"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G236" s="6"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="15"/>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A237" s="14"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="15"/>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A238" s="14"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="15"/>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A239" s="14"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="15"/>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A240" s="14"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="15"/>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="15"/>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
+      <c r="B242" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="15"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A243" s="14"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="15"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
+      <c r="B244" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="15"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
+      <c r="B245" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="15"/>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A246" s="14"/>
+      <c r="B246" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="15"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A247" s="14"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="15"/>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A248" s="14"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="15"/>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A249" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="15"/>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A250" s="14"/>
+      <c r="B250" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+      <c r="Q250" s="15"/>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A251" s="14"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="15"/>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A252" s="14"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+      <c r="M252" s="6"/>
+      <c r="N252" s="6"/>
+      <c r="O252" s="6"/>
+      <c r="P252" s="6"/>
+      <c r="Q252" s="15"/>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A253" s="14"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="15"/>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A254" s="14"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="15"/>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A255" s="14"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+      <c r="M255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
+      <c r="Q255" s="15"/>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A256" s="14"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+      <c r="M256" s="6"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
+      <c r="Q256" s="15"/>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A257" s="14"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="6"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
+      <c r="Q257" s="15"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A258" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B258" s="37"/>
+      <c r="C258" s="37"/>
+      <c r="D258" s="37"/>
+      <c r="E258" s="37"/>
+      <c r="F258" s="37"/>
+      <c r="G258" s="37"/>
+      <c r="H258" s="37"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="6"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+      <c r="Q258" s="15"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A259" s="43"/>
+      <c r="B259" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+      <c r="F259" s="26"/>
+      <c r="G259" s="26"/>
+      <c r="H259" s="27"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
+      <c r="Q259" s="15"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A260" s="43"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" s="37"/>
+      <c r="E260" s="37"/>
+      <c r="F260" s="37"/>
+      <c r="G260" s="37"/>
+      <c r="H260" s="29"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+      <c r="M260" s="6"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+      <c r="Q260" s="15"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A261" s="43"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D261" s="37"/>
+      <c r="E261" s="37"/>
+      <c r="F261" s="37"/>
+      <c r="G261" s="37"/>
+      <c r="H261" s="29"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+      <c r="M261" s="6"/>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
+      <c r="Q261" s="15"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A262" s="43"/>
+      <c r="B262" s="28"/>
+      <c r="C262" s="37"/>
+      <c r="D262" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E262" s="37"/>
+      <c r="F262" s="37"/>
+      <c r="G262" s="37"/>
+      <c r="H262" s="29"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+      <c r="M262" s="6"/>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+      <c r="Q262" s="15"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A263" s="43"/>
+      <c r="B263" s="28"/>
+      <c r="C263" s="37"/>
+      <c r="D263" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E263" s="37"/>
+      <c r="F263" s="37"/>
+      <c r="G263" s="37"/>
+      <c r="H263" s="29"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+      <c r="M263" s="6"/>
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
+      <c r="Q263" s="15"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A264" s="43"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="37"/>
+      <c r="D264" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E264" s="37"/>
+      <c r="F264" s="37"/>
+      <c r="G264" s="37"/>
+      <c r="H264" s="29"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="6"/>
+      <c r="M264" s="6"/>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
+      <c r="Q264" s="15"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A265" s="43"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="37"/>
+      <c r="D265" s="37"/>
+      <c r="E265" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F265" s="37"/>
+      <c r="G265" s="37"/>
+      <c r="H265" s="29"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="6"/>
+      <c r="M265" s="6"/>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+      <c r="Q265" s="15"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A266" s="43"/>
+      <c r="B266" s="28"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E266" s="37"/>
+      <c r="F266" s="37"/>
+      <c r="G266" s="37"/>
+      <c r="H266" s="29"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+      <c r="M266" s="6"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+      <c r="Q266" s="15"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A267" s="43"/>
+      <c r="B267" s="28"/>
+      <c r="C267" s="37"/>
+      <c r="D267" s="37"/>
+      <c r="E267" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F267" s="37"/>
+      <c r="G267" s="37"/>
+      <c r="H267" s="29"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+      <c r="M267" s="6"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+      <c r="Q267" s="15"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A268" s="43"/>
+      <c r="B268" s="28"/>
+      <c r="C268" s="37"/>
+      <c r="D268" s="37"/>
+      <c r="E268" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F268" s="37"/>
+      <c r="G268" s="37"/>
+      <c r="H268" s="29"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+      <c r="M268" s="6"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+      <c r="Q268" s="15"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A269" s="43"/>
+      <c r="B269" s="28"/>
+      <c r="C269" s="37"/>
+      <c r="D269" s="37"/>
+      <c r="E269" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F269" s="37"/>
+      <c r="G269" s="37"/>
+      <c r="H269" s="29"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="6"/>
+      <c r="M269" s="6"/>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+      <c r="Q269" s="15"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A270" s="43"/>
+      <c r="B270" s="28"/>
+      <c r="C270" s="37"/>
+      <c r="D270" s="37"/>
+      <c r="E270" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F270" s="37"/>
+      <c r="G270" s="37"/>
+      <c r="H270" s="29"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="6"/>
+      <c r="M270" s="6"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+      <c r="Q270" s="15"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" s="43"/>
+      <c r="B271" s="28"/>
+      <c r="C271" s="37"/>
+      <c r="D271" s="37"/>
+      <c r="E271" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F271" s="37"/>
+      <c r="G271" s="37"/>
+      <c r="H271" s="29"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="6"/>
+      <c r="M271" s="6"/>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+      <c r="Q271" s="15"/>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" s="43"/>
+      <c r="B272" s="28"/>
+      <c r="C272" s="37"/>
+      <c r="D272" s="37"/>
+      <c r="E272" s="37"/>
+      <c r="F272" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G272" s="37"/>
+      <c r="H272" s="29"/>
+      <c r="I272" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J272" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K272" s="6"/>
+      <c r="L272" s="6"/>
+      <c r="M272" s="6"/>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+      <c r="Q272" s="15"/>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A273" s="43"/>
+      <c r="B273" s="28"/>
+      <c r="C273" s="37"/>
+      <c r="D273" s="37"/>
+      <c r="E273" s="37"/>
+      <c r="F273" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G273" s="37"/>
+      <c r="H273" s="29"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="6"/>
+      <c r="L273" s="6"/>
+      <c r="M273" s="6"/>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+      <c r="Q273" s="15"/>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A274" s="43"/>
+      <c r="B274" s="28"/>
+      <c r="C274" s="37"/>
+      <c r="D274" s="37"/>
+      <c r="E274" s="37"/>
+      <c r="F274" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G274" s="37"/>
+      <c r="H274" s="29"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="6"/>
+      <c r="L274" s="6"/>
+      <c r="M274" s="6"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+      <c r="Q274" s="15"/>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A275" s="43"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="37"/>
+      <c r="E275" s="37"/>
+      <c r="F275" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G275" s="37"/>
+      <c r="H275" s="29"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+      <c r="M275" s="6"/>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="15"/>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" s="43"/>
+      <c r="B276" s="28"/>
+      <c r="C276" s="37"/>
+      <c r="D276" s="37"/>
+      <c r="E276" s="37"/>
+      <c r="F276" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G276" s="37"/>
+      <c r="H276" s="29"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="6"/>
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+      <c r="Q276" s="15"/>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A277" s="43"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="37"/>
+      <c r="D277" s="37"/>
+      <c r="E277" s="37"/>
+      <c r="F277" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G277" s="37"/>
+      <c r="H277" s="29"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="6"/>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+      <c r="Q277" s="15"/>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A278" s="43"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="37"/>
+      <c r="D278" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E278" s="37"/>
+      <c r="F278" s="37"/>
+      <c r="G278" s="37"/>
+      <c r="H278" s="29"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="6"/>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+      <c r="Q278" s="15"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" s="43"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="37"/>
+      <c r="D279" s="37"/>
+      <c r="E279" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F279" s="37"/>
+      <c r="G279" s="37"/>
+      <c r="H279" s="29"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="6"/>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+      <c r="Q279" s="15"/>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A280" s="43"/>
+      <c r="B280" s="28"/>
+      <c r="C280" s="37"/>
+      <c r="D280" s="37"/>
+      <c r="E280" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F280" s="37"/>
+      <c r="G280" s="37"/>
+      <c r="H280" s="29"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="6"/>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="15"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A281" s="43"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F281" s="37"/>
+      <c r="G281" s="37"/>
+      <c r="H281" s="29"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="6"/>
+      <c r="L281" s="6"/>
+      <c r="M281" s="6"/>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+      <c r="Q281" s="15"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A282" s="43"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="37"/>
+      <c r="D282" s="37"/>
+      <c r="E282" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F282" s="37"/>
+      <c r="G282" s="37"/>
+      <c r="H282" s="29"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="6"/>
+      <c r="L282" s="6"/>
+      <c r="M282" s="6"/>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+      <c r="Q282" s="15"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A283" s="43"/>
+      <c r="B283" s="28"/>
+      <c r="C283" s="37"/>
+      <c r="D283" s="37"/>
+      <c r="E283" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F283" s="37"/>
+      <c r="G283" s="37"/>
+      <c r="H283" s="29"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="6"/>
+      <c r="M283" s="6"/>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="15"/>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A284" s="43"/>
+      <c r="B284" s="28"/>
+      <c r="C284" s="37"/>
+      <c r="D284" s="37"/>
+      <c r="E284" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F284" s="37"/>
+      <c r="G284" s="37"/>
+      <c r="H284" s="29"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="6"/>
+      <c r="L284" s="6"/>
+      <c r="M284" s="6"/>
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+      <c r="Q284" s="15"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A285" s="43"/>
+      <c r="B285" s="28"/>
+      <c r="C285" s="37"/>
+      <c r="D285" s="37"/>
+      <c r="E285" s="37"/>
+      <c r="F285" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G285" s="37"/>
+      <c r="H285" s="29"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+      <c r="K285" s="6"/>
+      <c r="L285" s="6"/>
+      <c r="M285" s="6"/>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+      <c r="Q285" s="15"/>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A286" s="43"/>
+      <c r="B286" s="28"/>
+      <c r="C286" s="37"/>
+      <c r="D286" s="37"/>
+      <c r="E286" s="37"/>
+      <c r="F286" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G286" s="37"/>
+      <c r="H286" s="29"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+      <c r="K286" s="6"/>
+      <c r="L286" s="6"/>
+      <c r="M286" s="6"/>
+      <c r="N286" s="6"/>
+      <c r="O286" s="6"/>
+      <c r="P286" s="6"/>
+      <c r="Q286" s="15"/>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A287" s="43"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="37"/>
+      <c r="D287" s="37"/>
+      <c r="E287" s="37"/>
+      <c r="F287" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G287" s="37"/>
+      <c r="H287" s="29"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+      <c r="K287" s="6"/>
+      <c r="L287" s="6"/>
+      <c r="M287" s="6"/>
+      <c r="N287" s="6"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="6"/>
+      <c r="Q287" s="15"/>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A288" s="43"/>
+      <c r="B288" s="28"/>
+      <c r="C288" s="37"/>
+      <c r="D288" s="37"/>
+      <c r="E288" s="37"/>
+      <c r="F288" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G288" s="37"/>
+      <c r="H288" s="29"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+      <c r="K288" s="6"/>
+      <c r="L288" s="6"/>
+      <c r="M288" s="6"/>
+      <c r="N288" s="6"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="6"/>
+      <c r="Q288" s="15"/>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A289" s="43"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="37"/>
+      <c r="D289" s="37"/>
+      <c r="E289" s="37"/>
+      <c r="F289" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G289" s="37"/>
+      <c r="H289" s="29"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="6"/>
+      <c r="M289" s="6"/>
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
+      <c r="Q289" s="15"/>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A290" s="43"/>
+      <c r="B290" s="28"/>
+      <c r="C290" s="37"/>
+      <c r="D290" s="37"/>
+      <c r="E290" s="37"/>
+      <c r="F290" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G290" s="37"/>
+      <c r="H290" s="29"/>
+      <c r="I290" s="6"/>
+      <c r="J290" s="6"/>
+      <c r="K290" s="6"/>
+      <c r="L290" s="6"/>
+      <c r="M290" s="6"/>
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
+      <c r="Q290" s="15"/>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A291" s="43"/>
+      <c r="B291" s="28"/>
+      <c r="C291" s="37"/>
+      <c r="D291" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E291" s="37"/>
+      <c r="F291" s="37"/>
+      <c r="G291" s="37"/>
+      <c r="H291" s="29"/>
+      <c r="I291" s="6"/>
+      <c r="J291" s="6"/>
+      <c r="K291" s="6"/>
+      <c r="L291" s="6"/>
+      <c r="M291" s="6"/>
+      <c r="N291" s="6"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="6"/>
+      <c r="Q291" s="15"/>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A292" s="43"/>
+      <c r="B292" s="30"/>
+      <c r="C292" s="31"/>
+      <c r="D292" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E292" s="31"/>
+      <c r="F292" s="31"/>
+      <c r="G292" s="31"/>
+      <c r="H292" s="32"/>
+      <c r="I292" s="6"/>
+      <c r="J292" s="6"/>
+      <c r="K292" s="6"/>
+      <c r="L292" s="6"/>
+      <c r="M292" s="6"/>
+      <c r="N292" s="6"/>
+      <c r="O292" s="6"/>
+      <c r="P292" s="6"/>
+      <c r="Q292" s="15"/>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A293" s="14"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="6"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="6"/>
+      <c r="L293" s="6"/>
+      <c r="M293" s="6"/>
+      <c r="N293" s="6"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="6"/>
+      <c r="Q293" s="15"/>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A294" s="14"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="6"/>
+      <c r="J294" s="6"/>
+      <c r="K294" s="6"/>
+      <c r="L294" s="6"/>
+      <c r="M294" s="6"/>
+      <c r="N294" s="6"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="6"/>
+      <c r="Q294" s="15"/>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A295" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+      <c r="I295" s="6"/>
+      <c r="J295" s="6"/>
+      <c r="K295" s="6"/>
+      <c r="L295" s="6"/>
+      <c r="M295" s="6"/>
+      <c r="N295" s="6"/>
+      <c r="O295" s="6"/>
+      <c r="P295" s="6"/>
+      <c r="Q295" s="15"/>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A296" s="14"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+      <c r="I296" s="6"/>
+      <c r="J296" s="6"/>
+      <c r="K296" s="6"/>
+      <c r="L296" s="6"/>
+      <c r="M296" s="6"/>
+      <c r="N296" s="6"/>
+      <c r="O296" s="6"/>
+      <c r="P296" s="6"/>
+      <c r="Q296" s="15"/>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A297" s="14"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+      <c r="I297" s="6"/>
+      <c r="J297" s="6"/>
+      <c r="K297" s="6"/>
+      <c r="L297" s="6"/>
+      <c r="M297" s="6"/>
+      <c r="N297" s="6"/>
+      <c r="O297" s="6"/>
+      <c r="P297" s="6"/>
+      <c r="Q297" s="15"/>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A298" s="14"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+      <c r="I298" s="6"/>
+      <c r="J298" s="6"/>
+      <c r="K298" s="6"/>
+      <c r="L298" s="6"/>
+      <c r="M298" s="6"/>
+      <c r="N298" s="6"/>
+      <c r="O298" s="6"/>
+      <c r="P298" s="6"/>
+      <c r="Q298" s="15"/>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A299" s="14"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="6"/>
+      <c r="J299" s="6"/>
+      <c r="K299" s="6"/>
+      <c r="L299" s="6"/>
+      <c r="M299" s="6"/>
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
+      <c r="Q299" s="15"/>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A300" s="14"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="6"/>
+      <c r="J300" s="6"/>
+      <c r="K300" s="6"/>
+      <c r="L300" s="6"/>
+      <c r="M300" s="6"/>
+      <c r="N300" s="6"/>
+      <c r="O300" s="6"/>
+      <c r="P300" s="6"/>
+      <c r="Q300" s="15"/>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A301" s="14"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="6"/>
+      <c r="J301" s="6"/>
+      <c r="K301" s="6"/>
+      <c r="L301" s="6"/>
+      <c r="M301" s="6"/>
+      <c r="N301" s="6"/>
+      <c r="O301" s="6"/>
+      <c r="P301" s="6"/>
+      <c r="Q301" s="15"/>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A302" s="14"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+      <c r="I302" s="6"/>
+      <c r="J302" s="6"/>
+      <c r="K302" s="6"/>
+      <c r="L302" s="6"/>
+      <c r="M302" s="6"/>
+      <c r="N302" s="6"/>
+      <c r="O302" s="6"/>
+      <c r="P302" s="6"/>
+      <c r="Q302" s="15"/>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A303" s="14"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+      <c r="I303" s="6"/>
+      <c r="J303" s="6"/>
+      <c r="K303" s="6"/>
+      <c r="L303" s="6"/>
+      <c r="M303" s="6"/>
+      <c r="N303" s="6"/>
+      <c r="O303" s="6"/>
+      <c r="P303" s="6"/>
+      <c r="Q303" s="15"/>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A304" s="14"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+      <c r="I304" s="6"/>
+      <c r="J304" s="6"/>
+      <c r="K304" s="6"/>
+      <c r="L304" s="6"/>
+      <c r="M304" s="6"/>
+      <c r="N304" s="6"/>
+      <c r="O304" s="6"/>
+      <c r="P304" s="6"/>
+      <c r="Q304" s="15"/>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A305" s="14"/>
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+      <c r="I305" s="6"/>
+      <c r="J305" s="6"/>
+      <c r="K305" s="6"/>
+      <c r="L305" s="6"/>
+      <c r="M305" s="6"/>
+      <c r="N305" s="6"/>
+      <c r="O305" s="6"/>
+      <c r="P305" s="6"/>
+      <c r="Q305" s="15"/>
+    </row>
+    <row r="306" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="17"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="18"/>
+      <c r="E306" s="18"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="18"/>
+      <c r="H306" s="18"/>
+      <c r="I306" s="18"/>
+      <c r="J306" s="18"/>
+      <c r="K306" s="18"/>
+      <c r="L306" s="18"/>
+      <c r="M306" s="18"/>
+      <c r="N306" s="18"/>
+      <c r="O306" s="18"/>
+      <c r="P306" s="18"/>
+      <c r="Q306" s="19"/>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A311" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="12"/>
+      <c r="I311" s="12"/>
+      <c r="J311" s="12"/>
+      <c r="K311" s="12"/>
+      <c r="L311" s="12"/>
+      <c r="M311" s="12"/>
+      <c r="N311" s="13"/>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A312" s="14"/>
+      <c r="B312" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="4"/>
+      <c r="I312" s="6"/>
+      <c r="J312" s="6"/>
+      <c r="K312" s="6"/>
+      <c r="L312" s="6"/>
+      <c r="M312" s="6"/>
+      <c r="N312" s="15"/>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A313" s="14"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="7"/>
+      <c r="I313" s="6"/>
+      <c r="J313" s="6"/>
+      <c r="K313" s="6"/>
+      <c r="L313" s="6"/>
+      <c r="M313" s="6"/>
+      <c r="N313" s="15"/>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A314" s="14"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="7"/>
+      <c r="I314" s="6"/>
+      <c r="J314" s="6"/>
+      <c r="K314" s="6"/>
+      <c r="L314" s="6"/>
+      <c r="M314" s="6"/>
+      <c r="N314" s="15"/>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A315" s="14"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="7"/>
+      <c r="I315" s="6"/>
+      <c r="J315" s="6"/>
+      <c r="K315" s="6"/>
+      <c r="L315" s="6"/>
+      <c r="M315" s="6"/>
+      <c r="N315" s="15"/>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A316" s="14"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="7"/>
+      <c r="I316" s="6"/>
+      <c r="J316" s="6"/>
+      <c r="K316" s="6"/>
+      <c r="L316" s="6"/>
+      <c r="M316" s="6"/>
+      <c r="N316" s="15"/>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A317" s="14"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="7"/>
+      <c r="I317" s="6"/>
+      <c r="J317" s="6"/>
+      <c r="K317" s="6"/>
+      <c r="L317" s="6"/>
+      <c r="M317" s="6"/>
+      <c r="N317" s="15"/>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A318" s="14"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="7"/>
+      <c r="I318" s="6"/>
+      <c r="J318" s="6"/>
+      <c r="K318" s="6"/>
+      <c r="L318" s="6"/>
+      <c r="M318" s="6"/>
+      <c r="N318" s="15"/>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A319" s="14"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="7"/>
+      <c r="I319" s="6"/>
+      <c r="J319" s="6"/>
+      <c r="K319" s="6"/>
+      <c r="L319" s="6"/>
+      <c r="M319" s="6"/>
+      <c r="N319" s="15"/>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A320" s="14"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="7"/>
+      <c r="I320" s="6"/>
+      <c r="J320" s="6"/>
+      <c r="K320" s="6"/>
+      <c r="L320" s="6"/>
+      <c r="M320" s="6"/>
+      <c r="N320" s="15"/>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A321" s="14"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="7"/>
+      <c r="I321" s="6"/>
+      <c r="J321" s="6"/>
+      <c r="K321" s="6"/>
+      <c r="L321" s="6"/>
+      <c r="M321" s="6"/>
+      <c r="N321" s="15"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A322" s="14"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="6"/>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="7"/>
+      <c r="I322" s="6"/>
+      <c r="J322" s="6"/>
+      <c r="K322" s="6"/>
+      <c r="L322" s="6"/>
+      <c r="M322" s="6"/>
+      <c r="N322" s="15"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A323" s="14"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="7"/>
+      <c r="I323" s="6"/>
+      <c r="J323" s="6"/>
+      <c r="K323" s="6"/>
+      <c r="L323" s="6"/>
+      <c r="M323" s="6"/>
+      <c r="N323" s="15"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A324" s="14"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="6"/>
+      <c r="E324" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F324" s="36"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="7"/>
+      <c r="I324" s="6"/>
+      <c r="J324" s="6"/>
+      <c r="K324" s="6"/>
+      <c r="L324" s="6"/>
+      <c r="M324" s="6"/>
+      <c r="N324" s="15"/>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A325" s="14"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="7"/>
+      <c r="I325" s="6"/>
+      <c r="J325" s="6"/>
+      <c r="K325" s="6"/>
+      <c r="L325" s="6"/>
+      <c r="M325" s="6"/>
+      <c r="N325" s="15"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A326" s="14"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="7"/>
+      <c r="I326" s="6"/>
+      <c r="J326" s="6"/>
+      <c r="K326" s="6"/>
+      <c r="L326" s="6"/>
+      <c r="M326" s="6"/>
+      <c r="N326" s="15"/>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A327" s="14"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="7"/>
+      <c r="I327" s="6"/>
+      <c r="J327" s="6"/>
+      <c r="K327" s="6"/>
+      <c r="L327" s="6"/>
+      <c r="M327" s="6"/>
+      <c r="N327" s="15"/>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A328" s="14"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="7"/>
+      <c r="I328" s="6"/>
+      <c r="J328" s="6"/>
+      <c r="K328" s="6"/>
+      <c r="L328" s="6"/>
+      <c r="M328" s="6"/>
+      <c r="N328" s="15"/>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A329" s="14"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="7"/>
+      <c r="I329" s="6"/>
+      <c r="J329" s="6"/>
+      <c r="K329" s="6"/>
+      <c r="L329" s="6"/>
+      <c r="M329" s="6"/>
+      <c r="N329" s="15"/>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A330" s="14"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="7"/>
+      <c r="I330" s="6"/>
+      <c r="J330" s="6"/>
+      <c r="K330" s="6"/>
+      <c r="L330" s="6"/>
+      <c r="M330" s="6"/>
+      <c r="N330" s="15"/>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A331" s="14"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="7"/>
+      <c r="I331" s="6"/>
+      <c r="J331" s="6"/>
+      <c r="K331" s="6"/>
+      <c r="L331" s="6"/>
+      <c r="M331" s="6"/>
+      <c r="N331" s="15"/>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A332" s="14"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G332" s="6"/>
+      <c r="H332" s="7"/>
+      <c r="I332" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J332" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K332" s="6"/>
+      <c r="L332" s="6"/>
+      <c r="M332" s="6"/>
+      <c r="N332" s="15"/>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A333" s="14"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G333" s="6"/>
+      <c r="H333" s="7"/>
+      <c r="I333" s="6"/>
+      <c r="J333" s="6"/>
+      <c r="K333" s="6"/>
+      <c r="L333" s="6"/>
+      <c r="M333" s="6"/>
+      <c r="N333" s="15"/>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A334" s="14"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G334" s="6"/>
+      <c r="H334" s="7"/>
+      <c r="I334" s="6"/>
+      <c r="J334" s="6"/>
+      <c r="K334" s="6"/>
+      <c r="L334" s="6"/>
+      <c r="M334" s="6"/>
+      <c r="N334" s="15"/>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A335" s="14"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G335" s="6"/>
+      <c r="H335" s="7"/>
+      <c r="I335" s="6"/>
+      <c r="J335" s="6"/>
+      <c r="K335" s="6"/>
+      <c r="L335" s="6"/>
+      <c r="M335" s="6"/>
+      <c r="N335" s="15"/>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A336" s="14"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G336" s="6"/>
+      <c r="H336" s="7"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="6"/>
+      <c r="L336" s="6"/>
+      <c r="M336" s="6"/>
+      <c r="N336" s="15"/>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A337" s="14"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G337" s="6"/>
+      <c r="H337" s="7"/>
+      <c r="I337" s="6"/>
+      <c r="J337" s="6"/>
+      <c r="K337" s="6"/>
+      <c r="L337" s="6"/>
+      <c r="M337" s="6"/>
+      <c r="N337" s="15"/>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A338" s="14"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="7"/>
+      <c r="I338" s="6"/>
+      <c r="J338" s="6"/>
+      <c r="K338" s="6"/>
+      <c r="L338" s="6"/>
+      <c r="M338" s="6"/>
+      <c r="N338" s="15"/>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A339" s="14"/>
+      <c r="B339" s="8"/>
+      <c r="C339" s="9"/>
+      <c r="D339" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E339" s="9"/>
+      <c r="F339" s="9"/>
+      <c r="G339" s="9"/>
+      <c r="H339" s="10"/>
+      <c r="I339" s="6"/>
+      <c r="J339" s="6"/>
+      <c r="K339" s="6"/>
+      <c r="L339" s="6"/>
+      <c r="M339" s="6"/>
+      <c r="N339" s="15"/>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A340" s="14"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
+      <c r="I340" s="6"/>
+      <c r="J340" s="6"/>
+      <c r="K340" s="6"/>
+      <c r="L340" s="6"/>
+      <c r="M340" s="6"/>
+      <c r="N340" s="15"/>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A341" s="14"/>
+      <c r="B341" s="6"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+      <c r="I341" s="6"/>
+      <c r="J341" s="6"/>
+      <c r="K341" s="6"/>
+      <c r="L341" s="6"/>
+      <c r="M341" s="6"/>
+      <c r="N341" s="15"/>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A342" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B342" s="6"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+      <c r="I342" s="6"/>
+      <c r="J342" s="6"/>
+      <c r="K342" s="6"/>
+      <c r="L342" s="6"/>
+      <c r="M342" s="6"/>
+      <c r="N342" s="15"/>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A343" s="14"/>
+      <c r="B343" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="4"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+      <c r="I343" s="6"/>
+      <c r="J343" s="6"/>
+      <c r="K343" s="6"/>
+      <c r="L343" s="6"/>
+      <c r="M343" s="6"/>
+      <c r="N343" s="15"/>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A344" s="14"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="7"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+      <c r="I344" s="6"/>
+      <c r="J344" s="6"/>
+      <c r="K344" s="6"/>
+      <c r="L344" s="6"/>
+      <c r="M344" s="6"/>
+      <c r="N344" s="15"/>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A345" s="14"/>
+      <c r="B345" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C345" s="6"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="7"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+      <c r="I345" s="6"/>
+      <c r="J345" s="6"/>
+      <c r="K345" s="6"/>
+      <c r="L345" s="6"/>
+      <c r="M345" s="6"/>
+      <c r="N345" s="15"/>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A346" s="14"/>
+      <c r="B346" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C346" s="6"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="7"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="6"/>
+      <c r="K346" s="6"/>
+      <c r="L346" s="6"/>
+      <c r="M346" s="6"/>
+      <c r="N346" s="15"/>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A347" s="14"/>
+      <c r="B347" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C347" s="9"/>
+      <c r="D347" s="9"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="10"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
+      <c r="I347" s="6"/>
+      <c r="J347" s="6"/>
+      <c r="K347" s="6"/>
+      <c r="L347" s="6"/>
+      <c r="M347" s="6"/>
+      <c r="N347" s="15"/>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A348" s="14"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
+      <c r="I348" s="6"/>
+      <c r="J348" s="6"/>
+      <c r="K348" s="6"/>
+      <c r="L348" s="6"/>
+      <c r="M348" s="6"/>
+      <c r="N348" s="15"/>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A349" s="14"/>
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
+      <c r="I349" s="6"/>
+      <c r="J349" s="6"/>
+      <c r="K349" s="6"/>
+      <c r="L349" s="6"/>
+      <c r="M349" s="6"/>
+      <c r="N349" s="15"/>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
+      <c r="I350" s="6"/>
+      <c r="J350" s="6"/>
+      <c r="K350" s="6"/>
+      <c r="L350" s="6"/>
+      <c r="M350" s="6"/>
+      <c r="N350" s="15"/>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A351" s="14"/>
+      <c r="B351" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
+      <c r="I351" s="6"/>
+      <c r="J351" s="6"/>
+      <c r="K351" s="6"/>
+      <c r="L351" s="6"/>
+      <c r="M351" s="6"/>
+      <c r="N351" s="15"/>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A352" s="14"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+      <c r="I352" s="6"/>
+      <c r="J352" s="6"/>
+      <c r="K352" s="6"/>
+      <c r="L352" s="6"/>
+      <c r="M352" s="6"/>
+      <c r="N352" s="15"/>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A353" s="14"/>
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
+      <c r="I353" s="6"/>
+      <c r="J353" s="6"/>
+      <c r="K353" s="6"/>
+      <c r="L353" s="6"/>
+      <c r="M353" s="6"/>
+      <c r="N353" s="15"/>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A354" s="14"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+      <c r="I354" s="6"/>
+      <c r="J354" s="6"/>
+      <c r="K354" s="6"/>
+      <c r="L354" s="6"/>
+      <c r="M354" s="6"/>
+      <c r="N354" s="15"/>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A355" s="14"/>
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
+      <c r="I355" s="6"/>
+      <c r="J355" s="6"/>
+      <c r="K355" s="6"/>
+      <c r="L355" s="6"/>
+      <c r="M355" s="6"/>
+      <c r="N355" s="15"/>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A356" s="14"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+      <c r="I356" s="6"/>
+      <c r="J356" s="6"/>
+      <c r="K356" s="6"/>
+      <c r="L356" s="6"/>
+      <c r="M356" s="6"/>
+      <c r="N356" s="15"/>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A357" s="14"/>
+      <c r="B357" s="6"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
+      <c r="I357" s="6"/>
+      <c r="J357" s="6"/>
+      <c r="K357" s="6"/>
+      <c r="L357" s="6"/>
+      <c r="M357" s="6"/>
+      <c r="N357" s="15"/>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A358" s="14"/>
+      <c r="B358" s="6"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
+      <c r="I358" s="6"/>
+      <c r="J358" s="6"/>
+      <c r="K358" s="6"/>
+      <c r="L358" s="6"/>
+      <c r="M358" s="6"/>
+      <c r="N358" s="15"/>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A359" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B359" s="37"/>
+      <c r="C359" s="37"/>
+      <c r="D359" s="37"/>
+      <c r="E359" s="37"/>
+      <c r="F359" s="37"/>
+      <c r="G359" s="37"/>
+      <c r="H359" s="37"/>
+      <c r="I359" s="6"/>
+      <c r="J359" s="6"/>
+      <c r="K359" s="6"/>
+      <c r="L359" s="6"/>
+      <c r="M359" s="6"/>
+      <c r="N359" s="15"/>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A360" s="43"/>
+      <c r="B360" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C360" s="26"/>
+      <c r="D360" s="26"/>
+      <c r="E360" s="26"/>
+      <c r="F360" s="26"/>
+      <c r="G360" s="26"/>
+      <c r="H360" s="27"/>
+      <c r="I360" s="6"/>
+      <c r="J360" s="6"/>
+      <c r="K360" s="6"/>
+      <c r="L360" s="6"/>
+      <c r="M360" s="6"/>
+      <c r="N360" s="15"/>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A361" s="43"/>
+      <c r="B361" s="28"/>
+      <c r="C361" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D361" s="37"/>
+      <c r="E361" s="37"/>
+      <c r="F361" s="37"/>
+      <c r="G361" s="37"/>
+      <c r="H361" s="29"/>
+      <c r="I361" s="6"/>
+      <c r="J361" s="6"/>
+      <c r="K361" s="6"/>
+      <c r="L361" s="6"/>
+      <c r="M361" s="6"/>
+      <c r="N361" s="15"/>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A362" s="43"/>
+      <c r="B362" s="28"/>
+      <c r="C362" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D362" s="37"/>
+      <c r="E362" s="37"/>
+      <c r="F362" s="37"/>
+      <c r="G362" s="37"/>
+      <c r="H362" s="29"/>
+      <c r="I362" s="6"/>
+      <c r="J362" s="6"/>
+      <c r="K362" s="6"/>
+      <c r="L362" s="6"/>
+      <c r="M362" s="6"/>
+      <c r="N362" s="15"/>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A363" s="43"/>
+      <c r="B363" s="28"/>
+      <c r="C363" s="37"/>
+      <c r="D363" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E363" s="37"/>
+      <c r="F363" s="37"/>
+      <c r="G363" s="37"/>
+      <c r="H363" s="29"/>
+      <c r="I363" s="6"/>
+      <c r="J363" s="6"/>
+      <c r="K363" s="6"/>
+      <c r="L363" s="6"/>
+      <c r="M363" s="6"/>
+      <c r="N363" s="15"/>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A364" s="43"/>
+      <c r="B364" s="28"/>
+      <c r="C364" s="37"/>
+      <c r="D364" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E364" s="37"/>
+      <c r="F364" s="37"/>
+      <c r="G364" s="37"/>
+      <c r="H364" s="29"/>
+      <c r="I364" s="6"/>
+      <c r="J364" s="6"/>
+      <c r="K364" s="6"/>
+      <c r="L364" s="6"/>
+      <c r="M364" s="6"/>
+      <c r="N364" s="15"/>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A365" s="43"/>
+      <c r="B365" s="28"/>
+      <c r="C365" s="37"/>
+      <c r="D365" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E365" s="37"/>
+      <c r="F365" s="37"/>
+      <c r="G365" s="37"/>
+      <c r="H365" s="29"/>
+      <c r="I365" s="6"/>
+      <c r="J365" s="6"/>
+      <c r="K365" s="6"/>
+      <c r="L365" s="6"/>
+      <c r="M365" s="6"/>
+      <c r="N365" s="15"/>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A366" s="43"/>
+      <c r="B366" s="28"/>
+      <c r="C366" s="37"/>
+      <c r="D366" s="37"/>
+      <c r="E366" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F366" s="37"/>
+      <c r="G366" s="37"/>
+      <c r="H366" s="29"/>
+      <c r="I366" s="6"/>
+      <c r="J366" s="6"/>
+      <c r="K366" s="6"/>
+      <c r="L366" s="6"/>
+      <c r="M366" s="6"/>
+      <c r="N366" s="15"/>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A367" s="43"/>
+      <c r="B367" s="28"/>
+      <c r="C367" s="37"/>
+      <c r="D367" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E367" s="37"/>
+      <c r="F367" s="37"/>
+      <c r="G367" s="37"/>
+      <c r="H367" s="29"/>
+      <c r="I367" s="6"/>
+      <c r="J367" s="6"/>
+      <c r="K367" s="6"/>
+      <c r="L367" s="6"/>
+      <c r="M367" s="6"/>
+      <c r="N367" s="15"/>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A368" s="43"/>
+      <c r="B368" s="28"/>
+      <c r="C368" s="37"/>
+      <c r="D368" s="37"/>
+      <c r="E368" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F368" s="37"/>
+      <c r="G368" s="37"/>
+      <c r="H368" s="29"/>
+      <c r="I368" s="6"/>
+      <c r="J368" s="6"/>
+      <c r="K368" s="6"/>
+      <c r="L368" s="6"/>
+      <c r="M368" s="6"/>
+      <c r="N368" s="15"/>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A369" s="43"/>
+      <c r="B369" s="28"/>
+      <c r="C369" s="37"/>
+      <c r="D369" s="37"/>
+      <c r="E369" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F369" s="37"/>
+      <c r="G369" s="37"/>
+      <c r="H369" s="29"/>
+      <c r="I369" s="6"/>
+      <c r="J369" s="6"/>
+      <c r="K369" s="6"/>
+      <c r="L369" s="6"/>
+      <c r="M369" s="6"/>
+      <c r="N369" s="15"/>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A370" s="43"/>
+      <c r="B370" s="28"/>
+      <c r="C370" s="37"/>
+      <c r="D370" s="37"/>
+      <c r="E370" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F370" s="37"/>
+      <c r="G370" s="37"/>
+      <c r="H370" s="29"/>
+      <c r="I370" s="6"/>
+      <c r="J370" s="6"/>
+      <c r="K370" s="6"/>
+      <c r="L370" s="6"/>
+      <c r="M370" s="6"/>
+      <c r="N370" s="15"/>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A371" s="43"/>
+      <c r="B371" s="28"/>
+      <c r="C371" s="37"/>
+      <c r="D371" s="37"/>
+      <c r="E371" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F371" s="37"/>
+      <c r="G371" s="37"/>
+      <c r="H371" s="29"/>
+      <c r="I371" s="6"/>
+      <c r="J371" s="6"/>
+      <c r="K371" s="6"/>
+      <c r="L371" s="6"/>
+      <c r="M371" s="6"/>
+      <c r="N371" s="15"/>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A372" s="43"/>
+      <c r="B372" s="28"/>
+      <c r="C372" s="37"/>
+      <c r="D372" s="37"/>
+      <c r="E372" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F372" s="37"/>
+      <c r="G372" s="37"/>
+      <c r="H372" s="29"/>
+      <c r="I372" s="6"/>
+      <c r="J372" s="6"/>
+      <c r="K372" s="6"/>
+      <c r="L372" s="6"/>
+      <c r="M372" s="6"/>
+      <c r="N372" s="15"/>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A373" s="43"/>
+      <c r="B373" s="28"/>
+      <c r="C373" s="37"/>
+      <c r="D373" s="37"/>
+      <c r="E373" s="37"/>
+      <c r="F373" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G373" s="37"/>
+      <c r="H373" s="29"/>
+      <c r="I373" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J373" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K373" s="6"/>
+      <c r="L373" s="6"/>
+      <c r="M373" s="6"/>
+      <c r="N373" s="15"/>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A374" s="43"/>
+      <c r="B374" s="28"/>
+      <c r="C374" s="37"/>
+      <c r="D374" s="37"/>
+      <c r="E374" s="37"/>
+      <c r="F374" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G374" s="37"/>
+      <c r="H374" s="29"/>
+      <c r="I374" s="6"/>
+      <c r="J374" s="6"/>
+      <c r="K374" s="6"/>
+      <c r="L374" s="6"/>
+      <c r="M374" s="6"/>
+      <c r="N374" s="15"/>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A375" s="43"/>
+      <c r="B375" s="28"/>
+      <c r="C375" s="37"/>
+      <c r="D375" s="37"/>
+      <c r="E375" s="37"/>
+      <c r="F375" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G375" s="37"/>
+      <c r="H375" s="29"/>
+      <c r="I375" s="6"/>
+      <c r="J375" s="6"/>
+      <c r="K375" s="6"/>
+      <c r="L375" s="6"/>
+      <c r="M375" s="6"/>
+      <c r="N375" s="15"/>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A376" s="43"/>
+      <c r="B376" s="28"/>
+      <c r="C376" s="37"/>
+      <c r="D376" s="37"/>
+      <c r="E376" s="37"/>
+      <c r="F376" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G376" s="37"/>
+      <c r="H376" s="29"/>
+      <c r="I376" s="6"/>
+      <c r="J376" s="6"/>
+      <c r="K376" s="6"/>
+      <c r="L376" s="6"/>
+      <c r="M376" s="6"/>
+      <c r="N376" s="15"/>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A377" s="43"/>
+      <c r="B377" s="28"/>
+      <c r="C377" s="37"/>
+      <c r="D377" s="37"/>
+      <c r="E377" s="37"/>
+      <c r="F377" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G377" s="37"/>
+      <c r="H377" s="29"/>
+      <c r="I377" s="6"/>
+      <c r="J377" s="6"/>
+      <c r="K377" s="6"/>
+      <c r="L377" s="6"/>
+      <c r="M377" s="6"/>
+      <c r="N377" s="15"/>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A378" s="43"/>
+      <c r="B378" s="28"/>
+      <c r="C378" s="37"/>
+      <c r="D378" s="37"/>
+      <c r="E378" s="37"/>
+      <c r="F378" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G378" s="37"/>
+      <c r="H378" s="29"/>
+      <c r="I378" s="6"/>
+      <c r="J378" s="6"/>
+      <c r="K378" s="6"/>
+      <c r="L378" s="6"/>
+      <c r="M378" s="6"/>
+      <c r="N378" s="15"/>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A379" s="43"/>
+      <c r="B379" s="28"/>
+      <c r="C379" s="37"/>
+      <c r="D379" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E379" s="37"/>
+      <c r="F379" s="37"/>
+      <c r="G379" s="37"/>
+      <c r="H379" s="29"/>
+      <c r="I379" s="6"/>
+      <c r="J379" s="6"/>
+      <c r="K379" s="6"/>
+      <c r="L379" s="6"/>
+      <c r="M379" s="6"/>
+      <c r="N379" s="15"/>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A380" s="43"/>
+      <c r="B380" s="28"/>
+      <c r="C380" s="37"/>
+      <c r="D380" s="37"/>
+      <c r="E380" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F380" s="37"/>
+      <c r="G380" s="37"/>
+      <c r="H380" s="29"/>
+      <c r="I380" s="6"/>
+      <c r="J380" s="6"/>
+      <c r="K380" s="6"/>
+      <c r="L380" s="6"/>
+      <c r="M380" s="6"/>
+      <c r="N380" s="15"/>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A381" s="43"/>
+      <c r="B381" s="28"/>
+      <c r="C381" s="37"/>
+      <c r="D381" s="37"/>
+      <c r="E381" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F381" s="37"/>
+      <c r="G381" s="37"/>
+      <c r="H381" s="29"/>
+      <c r="I381" s="6"/>
+      <c r="J381" s="6"/>
+      <c r="K381" s="6"/>
+      <c r="L381" s="6"/>
+      <c r="M381" s="6"/>
+      <c r="N381" s="15"/>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A382" s="43"/>
+      <c r="B382" s="28"/>
+      <c r="C382" s="37"/>
+      <c r="D382" s="37"/>
+      <c r="E382" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F382" s="37"/>
+      <c r="G382" s="37"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="6"/>
+      <c r="J382" s="6"/>
+      <c r="K382" s="6"/>
+      <c r="L382" s="6"/>
+      <c r="M382" s="6"/>
+      <c r="N382" s="15"/>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A383" s="43"/>
+      <c r="B383" s="28"/>
+      <c r="C383" s="37"/>
+      <c r="D383" s="37"/>
+      <c r="E383" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F383" s="37"/>
+      <c r="G383" s="37"/>
+      <c r="H383" s="29"/>
+      <c r="I383" s="6"/>
+      <c r="J383" s="6"/>
+      <c r="K383" s="6"/>
+      <c r="L383" s="6"/>
+      <c r="M383" s="6"/>
+      <c r="N383" s="15"/>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A384" s="43"/>
+      <c r="B384" s="28"/>
+      <c r="C384" s="37"/>
+      <c r="D384" s="37"/>
+      <c r="E384" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F384" s="37"/>
+      <c r="G384" s="37"/>
+      <c r="H384" s="29"/>
+      <c r="I384" s="6"/>
+      <c r="J384" s="6"/>
+      <c r="K384" s="6"/>
+      <c r="L384" s="6"/>
+      <c r="M384" s="6"/>
+      <c r="N384" s="15"/>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A385" s="43"/>
+      <c r="B385" s="28"/>
+      <c r="C385" s="37"/>
+      <c r="D385" s="37"/>
+      <c r="E385" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F385" s="37"/>
+      <c r="G385" s="37"/>
+      <c r="H385" s="29"/>
+      <c r="I385" s="6"/>
+      <c r="J385" s="6"/>
+      <c r="K385" s="6"/>
+      <c r="L385" s="6"/>
+      <c r="M385" s="6"/>
+      <c r="N385" s="15"/>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A386" s="43"/>
+      <c r="B386" s="28"/>
+      <c r="C386" s="37"/>
+      <c r="D386" s="37"/>
+      <c r="E386" s="37"/>
+      <c r="F386" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G386" s="37"/>
+      <c r="H386" s="29"/>
+      <c r="I386" s="6"/>
+      <c r="J386" s="6"/>
+      <c r="K386" s="6"/>
+      <c r="L386" s="6"/>
+      <c r="M386" s="6"/>
+      <c r="N386" s="15"/>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A387" s="43"/>
+      <c r="B387" s="28"/>
+      <c r="C387" s="37"/>
+      <c r="D387" s="37"/>
+      <c r="E387" s="37"/>
+      <c r="F387" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G387" s="37"/>
+      <c r="H387" s="29"/>
+      <c r="I387" s="6"/>
+      <c r="J387" s="6"/>
+      <c r="K387" s="6"/>
+      <c r="L387" s="6"/>
+      <c r="M387" s="6"/>
+      <c r="N387" s="15"/>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A388" s="43"/>
+      <c r="B388" s="28"/>
+      <c r="C388" s="37"/>
+      <c r="D388" s="37"/>
+      <c r="E388" s="37"/>
+      <c r="F388" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G388" s="37"/>
+      <c r="H388" s="29"/>
+      <c r="I388" s="6"/>
+      <c r="J388" s="6"/>
+      <c r="K388" s="6"/>
+      <c r="L388" s="6"/>
+      <c r="M388" s="6"/>
+      <c r="N388" s="15"/>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A389" s="43"/>
+      <c r="B389" s="28"/>
+      <c r="C389" s="37"/>
+      <c r="D389" s="37"/>
+      <c r="E389" s="37"/>
+      <c r="F389" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G389" s="37"/>
+      <c r="H389" s="29"/>
+      <c r="I389" s="6"/>
+      <c r="J389" s="6"/>
+      <c r="K389" s="6"/>
+      <c r="L389" s="6"/>
+      <c r="M389" s="6"/>
+      <c r="N389" s="15"/>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A390" s="43"/>
+      <c r="B390" s="28"/>
+      <c r="C390" s="37"/>
+      <c r="D390" s="37"/>
+      <c r="E390" s="37"/>
+      <c r="F390" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G390" s="37"/>
+      <c r="H390" s="29"/>
+      <c r="I390" s="6"/>
+      <c r="J390" s="6"/>
+      <c r="K390" s="6"/>
+      <c r="L390" s="6"/>
+      <c r="M390" s="6"/>
+      <c r="N390" s="15"/>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A391" s="43"/>
+      <c r="B391" s="28"/>
+      <c r="C391" s="37"/>
+      <c r="D391" s="37"/>
+      <c r="E391" s="37"/>
+      <c r="F391" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G391" s="37"/>
+      <c r="H391" s="29"/>
+      <c r="I391" s="6"/>
+      <c r="J391" s="6"/>
+      <c r="K391" s="6"/>
+      <c r="L391" s="6"/>
+      <c r="M391" s="6"/>
+      <c r="N391" s="15"/>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A392" s="43"/>
+      <c r="B392" s="28"/>
+      <c r="C392" s="37"/>
+      <c r="D392" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E392" s="37"/>
+      <c r="F392" s="37"/>
+      <c r="G392" s="37"/>
+      <c r="H392" s="29"/>
+      <c r="I392" s="6"/>
+      <c r="J392" s="6"/>
+      <c r="K392" s="6"/>
+      <c r="L392" s="6"/>
+      <c r="M392" s="6"/>
+      <c r="N392" s="15"/>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A393" s="43"/>
+      <c r="B393" s="30"/>
+      <c r="C393" s="31"/>
+      <c r="D393" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E393" s="31"/>
+      <c r="F393" s="31"/>
+      <c r="G393" s="31"/>
+      <c r="H393" s="32"/>
+      <c r="I393" s="6"/>
+      <c r="J393" s="6"/>
+      <c r="K393" s="6"/>
+      <c r="L393" s="6"/>
+      <c r="M393" s="6"/>
+      <c r="N393" s="15"/>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A394" s="14"/>
+      <c r="B394" s="6"/>
+      <c r="C394" s="6"/>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+      <c r="F394" s="6"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="6"/>
+      <c r="I394" s="6"/>
+      <c r="J394" s="6"/>
+      <c r="K394" s="6"/>
+      <c r="L394" s="6"/>
+      <c r="M394" s="6"/>
+      <c r="N394" s="15"/>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A395" s="14"/>
+      <c r="B395" s="6"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="6"/>
+      <c r="H395" s="6"/>
+      <c r="I395" s="6"/>
+      <c r="J395" s="6"/>
+      <c r="K395" s="6"/>
+      <c r="L395" s="6"/>
+      <c r="M395" s="6"/>
+      <c r="N395" s="15"/>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A396" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+      <c r="F396" s="6"/>
+      <c r="G396" s="6"/>
+      <c r="H396" s="6"/>
+      <c r="I396" s="6"/>
+      <c r="J396" s="6"/>
+      <c r="K396" s="6"/>
+      <c r="L396" s="6"/>
+      <c r="M396" s="6"/>
+      <c r="N396" s="15"/>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A397" s="14"/>
+      <c r="B397" s="6"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
+      <c r="F397" s="6"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="6"/>
+      <c r="I397" s="6"/>
+      <c r="J397" s="6"/>
+      <c r="K397" s="6"/>
+      <c r="L397" s="6"/>
+      <c r="M397" s="6"/>
+      <c r="N397" s="15"/>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A398" s="14"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="6"/>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+      <c r="F398" s="6"/>
+      <c r="G398" s="6"/>
+      <c r="H398" s="6"/>
+      <c r="I398" s="6"/>
+      <c r="J398" s="6"/>
+      <c r="K398" s="6"/>
+      <c r="L398" s="6"/>
+      <c r="M398" s="6"/>
+      <c r="N398" s="15"/>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A399" s="14"/>
+      <c r="B399" s="6"/>
+      <c r="C399" s="6"/>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+      <c r="F399" s="6"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="6"/>
+      <c r="I399" s="6"/>
+      <c r="J399" s="6"/>
+      <c r="K399" s="6"/>
+      <c r="L399" s="6"/>
+      <c r="M399" s="6"/>
+      <c r="N399" s="15"/>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A400" s="14"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="6"/>
+      <c r="I400" s="6"/>
+      <c r="J400" s="6"/>
+      <c r="K400" s="6"/>
+      <c r="L400" s="6"/>
+      <c r="M400" s="6"/>
+      <c r="N400" s="15"/>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A401" s="14"/>
+      <c r="B401" s="6"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
+      <c r="I401" s="6"/>
+      <c r="J401" s="6"/>
+      <c r="K401" s="6"/>
+      <c r="L401" s="6"/>
+      <c r="M401" s="6"/>
+      <c r="N401" s="15"/>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A402" s="14"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="6"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="6"/>
+      <c r="I402" s="6"/>
+      <c r="J402" s="6"/>
+      <c r="K402" s="6"/>
+      <c r="L402" s="6"/>
+      <c r="M402" s="6"/>
+      <c r="N402" s="15"/>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A403" s="14"/>
+      <c r="B403" s="6"/>
+      <c r="C403" s="6"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+      <c r="F403" s="6"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="6"/>
+      <c r="I403" s="6"/>
+      <c r="J403" s="6"/>
+      <c r="K403" s="6"/>
+      <c r="L403" s="6"/>
+      <c r="M403" s="6"/>
+      <c r="N403" s="15"/>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A404" s="14"/>
+      <c r="B404" s="6"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="6"/>
+      <c r="I404" s="6"/>
+      <c r="J404" s="6"/>
+      <c r="K404" s="6"/>
+      <c r="L404" s="6"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="15"/>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A405" s="14"/>
+      <c r="B405" s="6"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
+      <c r="F405" s="6"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="6"/>
+      <c r="I405" s="6"/>
+      <c r="J405" s="6"/>
+      <c r="K405" s="6"/>
+      <c r="L405" s="6"/>
+      <c r="M405" s="6"/>
+      <c r="N405" s="15"/>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A406" s="14"/>
+      <c r="B406" s="6"/>
+      <c r="C406" s="6"/>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+      <c r="F406" s="6"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="6"/>
+      <c r="I406" s="6"/>
+      <c r="J406" s="6"/>
+      <c r="K406" s="6"/>
+      <c r="L406" s="6"/>
+      <c r="M406" s="6"/>
+      <c r="N406" s="15"/>
+    </row>
+    <row r="407" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="17"/>
+      <c r="B407" s="18"/>
+      <c r="C407" s="18"/>
+      <c r="D407" s="18"/>
+      <c r="E407" s="18"/>
+      <c r="F407" s="18"/>
+      <c r="G407" s="18"/>
+      <c r="H407" s="18"/>
+      <c r="I407" s="18"/>
+      <c r="J407" s="18"/>
+      <c r="K407" s="18"/>
+      <c r="L407" s="18"/>
+      <c r="M407" s="18"/>
+      <c r="N407" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>